--- a/тест кейсы.xlsx
+++ b/тест кейсы.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView minimized="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="GetF" sheetId="1" r:id="rId1"/>
     <sheet name="GetArray" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -250,7 +250,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000000000000"/>
     <numFmt numFmtId="165" formatCode="0.000000000000000"/>
@@ -637,7 +637,7 @@
         <xdr:cNvPr id="3" name="Рисунок 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -681,7 +681,7 @@
         <xdr:cNvPr id="2" name="Рисунок 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67A88DF1-CBF2-4EEB-A375-A197480B84F2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67A88DF1-CBF2-4EEB-A375-A197480B84F2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>

--- a/тест кейсы.xlsx
+++ b/тест кейсы.xlsx
@@ -2,15 +2,16 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="GetF" sheetId="1" r:id="rId1"/>
     <sheet name="GetArray" sheetId="2" r:id="rId2"/>
+    <sheet name="WriteToFile" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="106">
   <si>
     <t>b</t>
   </si>
@@ -245,12 +246,105 @@
   </si>
   <si>
     <t>n должен быть больше  0</t>
+  </si>
+  <si>
+    <t>№13</t>
+  </si>
+  <si>
+    <t>№14</t>
+  </si>
+  <si>
+    <t>Имя файла не содержит ни одного символа</t>
+  </si>
+  <si>
+    <t>Имя файла содержит символы: &lt;, &gt;, ", /, \, |, ?, *</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>values</t>
+  </si>
+  <si>
+    <t>№ 1</t>
+  </si>
+  <si>
+    <t>Имя файла не содержит символы: &lt;, &gt;, ", /, \, |, ?, *</t>
+  </si>
+  <si>
+    <t>Имя файла не должно быть пустым</t>
+  </si>
+  <si>
+    <t>путь к файлу существует</t>
+  </si>
+  <si>
+    <t>путь к файлу не существует</t>
+  </si>
+  <si>
+    <t>Имя файла не корректное</t>
+  </si>
+  <si>
+    <t>Имя файла корректное</t>
+  </si>
+  <si>
+    <t>Файл успешно записан</t>
+  </si>
+  <si>
+    <t>C:\Program Files/test.txt</t>
+  </si>
+  <si>
+    <t>C:\Program Files/.txt</t>
+  </si>
+  <si>
+    <t>Некоректное имя файла</t>
+  </si>
+  <si>
+    <t>[1, 2, 3, 4, 5]</t>
+  </si>
+  <si>
+    <t>Не передан массив данных</t>
+  </si>
+  <si>
+    <t>C:\Program Files/еу*.txt</t>
+  </si>
+  <si>
+    <t>C:\Program Files/еу&lt;.txt</t>
+  </si>
+  <si>
+    <t>C:\Program Files/еу&gt;.txt</t>
+  </si>
+  <si>
+    <t>C:\Program Files/еу?.txt</t>
+  </si>
+  <si>
+    <t>C:\Program Files/еу/.txt</t>
+  </si>
+  <si>
+    <t>C:\Program Files/еу\.txt</t>
+  </si>
+  <si>
+    <t>C:\Program Files/еу|.txt</t>
+  </si>
+  <si>
+    <t>№11</t>
+  </si>
+  <si>
+    <t>№12</t>
+  </si>
+  <si>
+    <t>C:\Program Files/a.txt</t>
+  </si>
+  <si>
+    <t>C:\Program Files/aw.txt</t>
+  </si>
+  <si>
+    <t>[]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000000000000"/>
     <numFmt numFmtId="165" formatCode="0.000000000000000"/>
@@ -444,7 +538,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -537,6 +631,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -565,6 +671,24 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -585,21 +709,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -637,7 +759,7 @@
         <xdr:cNvPr id="3" name="Рисунок 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -670,10 +792,10 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3228571" cy="466667"/>
     <xdr:pic>
@@ -681,7 +803,7 @@
         <xdr:cNvPr id="2" name="Рисунок 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67A88DF1-CBF2-4EEB-A375-A197480B84F2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67A88DF1-CBF2-4EEB-A375-A197480B84F2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -697,7 +819,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5648325" y="314325"/>
+          <a:off x="2876550" y="1438275"/>
           <a:ext cx="3228571" cy="466667"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1052,18 +1174,18 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="44" t="s">
+      <c r="A10" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="44"/>
-      <c r="C10" s="44"/>
+      <c r="B10" s="48"/>
+      <c r="C10" s="48"/>
     </row>
     <row r="11" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="45" t="s">
+      <c r="A11" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="45"/>
-      <c r="C11" s="45"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="49"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -1106,7 +1228,7 @@
       <c r="B16" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="51" t="s">
+      <c r="C16" s="55" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1115,7 +1237,7 @@
       <c r="B17" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="52"/>
+      <c r="C17" s="56"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
@@ -1131,7 +1253,7 @@
       <c r="B19" s="16">
         <v>10</v>
       </c>
-      <c r="C19" s="49" t="s">
+      <c r="C19" s="53" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1142,7 +1264,7 @@
       <c r="B20" s="17">
         <v>0</v>
       </c>
-      <c r="C20" s="50"/>
+      <c r="C20" s="54"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
@@ -1156,7 +1278,7 @@
       <c r="B22" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="47" t="s">
+      <c r="C22" s="51" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1165,7 +1287,7 @@
       <c r="B23" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="48"/>
+      <c r="C23" s="52"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="18" t="s">
@@ -1179,7 +1301,7 @@
       <c r="B25" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="51" t="s">
+      <c r="C25" s="55" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1188,7 +1310,7 @@
       <c r="B26" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="52"/>
+      <c r="C26" s="56"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
@@ -1202,7 +1324,7 @@
       <c r="B28" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C28" s="49" t="s">
+      <c r="C28" s="53" t="s">
         <v>30</v>
       </c>
       <c r="E28" t="s">
@@ -1214,7 +1336,7 @@
       <c r="B29" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="C29" s="50"/>
+      <c r="C29" s="54"/>
       <c r="E29" t="s">
         <v>50</v>
       </c>
@@ -1234,7 +1356,7 @@
       <c r="B31" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C31" s="49" t="s">
+      <c r="C31" s="53" t="s">
         <v>30</v>
       </c>
       <c r="E31" t="s">
@@ -1246,7 +1368,7 @@
       <c r="B32" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C32" s="50"/>
+      <c r="C32" s="54"/>
       <c r="E32" t="s">
         <v>53</v>
       </c>
@@ -1263,7 +1385,7 @@
       <c r="B34" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C34" s="49" t="s">
+      <c r="C34" s="53" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1272,14 +1394,14 @@
       <c r="B35" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="C35" s="50"/>
+      <c r="C35" s="54"/>
     </row>
     <row r="36" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="46" t="s">
+      <c r="A36" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="B36" s="46"/>
-      <c r="C36" s="46"/>
+      <c r="B36" s="50"/>
+      <c r="C36" s="50"/>
     </row>
     <row r="37" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
@@ -1293,7 +1415,7 @@
       <c r="B38" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C38" s="47" t="s">
+      <c r="C38" s="51" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1302,7 +1424,7 @@
       <c r="B39" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="C39" s="48"/>
+      <c r="C39" s="52"/>
     </row>
     <row r="40" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
@@ -1316,7 +1438,7 @@
       <c r="B41" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C41" s="47" t="s">
+      <c r="C41" s="51" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1325,7 +1447,7 @@
       <c r="B42" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="C42" s="48"/>
+      <c r="C42" s="52"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
@@ -1415,10 +1537,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N66"/>
+  <dimension ref="A1:N78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="B72" sqref="B72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1461,12 +1583,12 @@
       </c>
     </row>
     <row r="5" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="57" t="s">
+      <c r="A5" s="67" t="s">
         <v>65</v>
       </c>
-      <c r="B5" s="57"/>
-      <c r="C5" s="57"/>
-      <c r="D5" s="57"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
       <c r="G5" s="41" t="s">
         <v>64</v>
       </c>
@@ -1486,10 +1608,10 @@
       <c r="B7" s="29">
         <v>1</v>
       </c>
-      <c r="C7" s="59">
+      <c r="C7" s="69">
         <v>-1.3715301244642522</v>
       </c>
-      <c r="D7" s="60"/>
+      <c r="D7" s="58"/>
       <c r="J7">
         <v>1</v>
       </c>
@@ -1513,10 +1635,10 @@
       <c r="B8" s="28">
         <v>5</v>
       </c>
-      <c r="C8" s="61">
+      <c r="C8" s="70">
         <v>-2.3853745661267767</v>
       </c>
-      <c r="D8" s="62"/>
+      <c r="D8" s="60"/>
       <c r="J8">
         <f>(100/($B$10*$B$10-100))*SIN((4*J$7)/SQRT($B$11*$B$11 + 14 * $B$11 + 45))</f>
         <v>-1.3715301244642522</v>
@@ -1545,10 +1667,10 @@
       <c r="B9" s="28">
         <v>5</v>
       </c>
-      <c r="C9" s="61">
+      <c r="C9" s="70">
         <v>-2.777129623674452</v>
       </c>
-      <c r="D9" s="62"/>
+      <c r="D9" s="60"/>
     </row>
     <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
@@ -1557,10 +1679,10 @@
       <c r="B10" s="28">
         <v>8</v>
       </c>
-      <c r="C10" s="61">
+      <c r="C10" s="70">
         <v>-2.4446282555304797</v>
       </c>
-      <c r="D10" s="62"/>
+      <c r="D10" s="60"/>
     </row>
     <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
@@ -1569,10 +1691,10 @@
       <c r="B11" s="27">
         <v>1</v>
       </c>
-      <c r="C11" s="63">
+      <c r="C11" s="71">
         <v>-1.4745845460417426</v>
       </c>
-      <c r="D11" s="64"/>
+      <c r="D11" s="62"/>
     </row>
     <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="36" t="s">
@@ -1588,10 +1710,10 @@
       <c r="B13" s="35">
         <v>1</v>
       </c>
-      <c r="C13" s="53" t="s">
+      <c r="C13" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="D13" s="54"/>
+      <c r="D13" s="64"/>
     </row>
     <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
@@ -1600,8 +1722,8 @@
       <c r="B14" s="31">
         <v>3</v>
       </c>
-      <c r="C14" s="55"/>
-      <c r="D14" s="49"/>
+      <c r="C14" s="65"/>
+      <c r="D14" s="53"/>
     </row>
     <row r="15" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
@@ -1610,8 +1732,8 @@
       <c r="B15" s="31">
         <v>3</v>
       </c>
-      <c r="C15" s="55"/>
-      <c r="D15" s="49"/>
+      <c r="C15" s="65"/>
+      <c r="D15" s="53"/>
     </row>
     <row r="16" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
@@ -1620,8 +1742,8 @@
       <c r="B16" s="31">
         <v>8</v>
       </c>
-      <c r="C16" s="55"/>
-      <c r="D16" s="49"/>
+      <c r="C16" s="65"/>
+      <c r="D16" s="53"/>
     </row>
     <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
@@ -1630,8 +1752,8 @@
       <c r="B17" s="34">
         <v>1</v>
       </c>
-      <c r="C17" s="56"/>
-      <c r="D17" s="50"/>
+      <c r="C17" s="66"/>
+      <c r="D17" s="54"/>
     </row>
     <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="33" t="s">
@@ -1645,10 +1767,10 @@
       <c r="B19" s="29">
         <v>1</v>
       </c>
-      <c r="C19" s="53" t="s">
+      <c r="C19" s="63" t="s">
         <v>61</v>
       </c>
-      <c r="D19" s="54"/>
+      <c r="D19" s="64"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
@@ -1657,8 +1779,8 @@
       <c r="B20" s="28">
         <v>10</v>
       </c>
-      <c r="C20" s="55"/>
-      <c r="D20" s="49"/>
+      <c r="C20" s="65"/>
+      <c r="D20" s="53"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
@@ -1667,8 +1789,8 @@
       <c r="B21" s="28">
         <v>10</v>
       </c>
-      <c r="C21" s="55"/>
-      <c r="D21" s="49"/>
+      <c r="C21" s="65"/>
+      <c r="D21" s="53"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
@@ -1677,8 +1799,8 @@
       <c r="B22" s="28">
         <v>10</v>
       </c>
-      <c r="C22" s="55"/>
-      <c r="D22" s="49"/>
+      <c r="C22" s="65"/>
+      <c r="D22" s="53"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
@@ -1687,8 +1809,8 @@
       <c r="B23" s="27">
         <v>1</v>
       </c>
-      <c r="C23" s="56"/>
-      <c r="D23" s="50"/>
+      <c r="C23" s="66"/>
+      <c r="D23" s="54"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="33" t="s">
@@ -1702,10 +1824,10 @@
       <c r="B25" s="29">
         <v>1</v>
       </c>
-      <c r="C25" s="53" t="s">
+      <c r="C25" s="63" t="s">
         <v>60</v>
       </c>
-      <c r="D25" s="54"/>
+      <c r="D25" s="64"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
@@ -1714,8 +1836,8 @@
       <c r="B26" s="28">
         <v>10</v>
       </c>
-      <c r="C26" s="55"/>
-      <c r="D26" s="49"/>
+      <c r="C26" s="65"/>
+      <c r="D26" s="53"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
@@ -1724,8 +1846,8 @@
       <c r="B27" s="28">
         <v>10</v>
       </c>
-      <c r="C27" s="55"/>
-      <c r="D27" s="49"/>
+      <c r="C27" s="65"/>
+      <c r="D27" s="53"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
@@ -1734,8 +1856,8 @@
       <c r="B28" s="28">
         <v>-10</v>
       </c>
-      <c r="C28" s="55"/>
-      <c r="D28" s="49"/>
+      <c r="C28" s="65"/>
+      <c r="D28" s="53"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
@@ -1744,8 +1866,8 @@
       <c r="B29" s="27">
         <v>1</v>
       </c>
-      <c r="C29" s="56"/>
-      <c r="D29" s="50"/>
+      <c r="C29" s="66"/>
+      <c r="D29" s="54"/>
     </row>
     <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="33" t="s">
@@ -1759,10 +1881,10 @@
       <c r="B31" s="29">
         <v>1</v>
       </c>
-      <c r="C31" s="53" t="s">
+      <c r="C31" s="63" t="s">
         <v>59</v>
       </c>
-      <c r="D31" s="54"/>
+      <c r="D31" s="64"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
@@ -1771,8 +1893,8 @@
       <c r="B32" s="28">
         <v>10</v>
       </c>
-      <c r="C32" s="55"/>
-      <c r="D32" s="49"/>
+      <c r="C32" s="65"/>
+      <c r="D32" s="53"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
@@ -1781,8 +1903,8 @@
       <c r="B33" s="28">
         <v>10</v>
       </c>
-      <c r="C33" s="55"/>
-      <c r="D33" s="49"/>
+      <c r="C33" s="65"/>
+      <c r="D33" s="53"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
@@ -1791,8 +1913,8 @@
       <c r="B34" s="28">
         <v>8</v>
       </c>
-      <c r="C34" s="55"/>
-      <c r="D34" s="49"/>
+      <c r="C34" s="65"/>
+      <c r="D34" s="53"/>
     </row>
     <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
@@ -1801,8 +1923,8 @@
       <c r="B35" s="27">
         <v>-6</v>
       </c>
-      <c r="C35" s="56"/>
-      <c r="D35" s="50"/>
+      <c r="C35" s="66"/>
+      <c r="D35" s="54"/>
     </row>
     <row r="36" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="33" t="s">
@@ -1816,10 +1938,10 @@
       <c r="B37" s="29">
         <v>1</v>
       </c>
-      <c r="C37" s="53" t="s">
+      <c r="C37" s="63" t="s">
         <v>59</v>
       </c>
-      <c r="D37" s="54"/>
+      <c r="D37" s="64"/>
     </row>
     <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
@@ -1828,8 +1950,8 @@
       <c r="B38" s="28">
         <v>10</v>
       </c>
-      <c r="C38" s="55"/>
-      <c r="D38" s="49"/>
+      <c r="C38" s="65"/>
+      <c r="D38" s="53"/>
     </row>
     <row r="39" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
@@ -1838,8 +1960,8 @@
       <c r="B39" s="28">
         <v>10</v>
       </c>
-      <c r="C39" s="55"/>
-      <c r="D39" s="49"/>
+      <c r="C39" s="65"/>
+      <c r="D39" s="53"/>
     </row>
     <row r="40" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="10" t="s">
@@ -1848,8 +1970,8 @@
       <c r="B40" s="28">
         <v>8</v>
       </c>
-      <c r="C40" s="55"/>
-      <c r="D40" s="49"/>
+      <c r="C40" s="65"/>
+      <c r="D40" s="53"/>
     </row>
     <row r="41" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
@@ -1858,8 +1980,8 @@
       <c r="B41" s="27">
         <v>-9</v>
       </c>
-      <c r="C41" s="56"/>
-      <c r="D41" s="50"/>
+      <c r="C41" s="66"/>
+      <c r="D41" s="54"/>
     </row>
     <row r="42" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="33" t="s">
@@ -1873,10 +1995,10 @@
       <c r="B43" s="29">
         <v>1</v>
       </c>
-      <c r="C43" s="53" t="s">
+      <c r="C43" s="63" t="s">
         <v>59</v>
       </c>
-      <c r="D43" s="54"/>
+      <c r="D43" s="64"/>
     </row>
     <row r="44" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="10" t="s">
@@ -1885,8 +2007,8 @@
       <c r="B44" s="28">
         <v>10</v>
       </c>
-      <c r="C44" s="55"/>
-      <c r="D44" s="49"/>
+      <c r="C44" s="65"/>
+      <c r="D44" s="53"/>
     </row>
     <row r="45" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="10" t="s">
@@ -1895,8 +2017,8 @@
       <c r="B45" s="28">
         <v>1</v>
       </c>
-      <c r="C45" s="55"/>
-      <c r="D45" s="49"/>
+      <c r="C45" s="65"/>
+      <c r="D45" s="53"/>
     </row>
     <row r="46" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="10" t="s">
@@ -1905,8 +2027,8 @@
       <c r="B46" s="28">
         <v>8</v>
       </c>
-      <c r="C46" s="55"/>
-      <c r="D46" s="49"/>
+      <c r="C46" s="65"/>
+      <c r="D46" s="53"/>
     </row>
     <row r="47" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
@@ -1915,16 +2037,16 @@
       <c r="B47" s="27">
         <v>-5</v>
       </c>
-      <c r="C47" s="56"/>
-      <c r="D47" s="50"/>
+      <c r="C47" s="66"/>
+      <c r="D47" s="54"/>
     </row>
     <row r="48" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="58" t="s">
+      <c r="A48" s="68" t="s">
         <v>58</v>
       </c>
-      <c r="B48" s="57"/>
-      <c r="C48" s="57"/>
-      <c r="D48" s="57"/>
+      <c r="B48" s="67"/>
+      <c r="C48" s="67"/>
+      <c r="D48" s="67"/>
     </row>
     <row r="49" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="32" t="s">
@@ -1940,10 +2062,10 @@
       <c r="B50" s="29">
         <v>2</v>
       </c>
-      <c r="C50" s="53" t="s">
+      <c r="C50" s="63" t="s">
         <v>30</v>
       </c>
-      <c r="D50" s="54"/>
+      <c r="D50" s="64"/>
     </row>
     <row r="51" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="10" t="s">
@@ -1952,8 +2074,8 @@
       <c r="B51" s="28">
         <v>5</v>
       </c>
-      <c r="C51" s="55"/>
-      <c r="D51" s="49"/>
+      <c r="C51" s="65"/>
+      <c r="D51" s="53"/>
     </row>
     <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="10" t="s">
@@ -1962,8 +2084,8 @@
       <c r="B52" s="28">
         <v>1</v>
       </c>
-      <c r="C52" s="55"/>
-      <c r="D52" s="49"/>
+      <c r="C52" s="65"/>
+      <c r="D52" s="53"/>
     </row>
     <row r="53" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="10" t="s">
@@ -1972,8 +2094,8 @@
       <c r="B53" s="28">
         <v>8</v>
       </c>
-      <c r="C53" s="55"/>
-      <c r="D53" s="49"/>
+      <c r="C53" s="65"/>
+      <c r="D53" s="53"/>
     </row>
     <row r="54" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="11" t="s">
@@ -1982,8 +2104,8 @@
       <c r="B54" s="27">
         <v>-8.9990000000000006</v>
       </c>
-      <c r="C54" s="56"/>
-      <c r="D54" s="50"/>
+      <c r="C54" s="66"/>
+      <c r="D54" s="54"/>
     </row>
     <row r="55" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="32" t="s">
@@ -1999,10 +2121,10 @@
       <c r="B56" s="29">
         <v>2</v>
       </c>
-      <c r="C56" s="53" t="s">
+      <c r="C56" s="63" t="s">
         <v>30</v>
       </c>
-      <c r="D56" s="54"/>
+      <c r="D56" s="64"/>
     </row>
     <row r="57" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="10" t="s">
@@ -2011,8 +2133,8 @@
       <c r="B57" s="28">
         <v>5</v>
       </c>
-      <c r="C57" s="55"/>
-      <c r="D57" s="49"/>
+      <c r="C57" s="65"/>
+      <c r="D57" s="53"/>
     </row>
     <row r="58" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="10" t="s">
@@ -2021,8 +2143,8 @@
       <c r="B58" s="28">
         <v>1</v>
       </c>
-      <c r="C58" s="55"/>
-      <c r="D58" s="49"/>
+      <c r="C58" s="65"/>
+      <c r="D58" s="53"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="10" t="s">
@@ -2031,8 +2153,8 @@
       <c r="B59" s="28">
         <v>8</v>
       </c>
-      <c r="C59" s="55"/>
-      <c r="D59" s="49"/>
+      <c r="C59" s="65"/>
+      <c r="D59" s="53"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="11" t="s">
@@ -2041,8 +2163,8 @@
       <c r="B60" s="27">
         <v>-5.0010000000000003</v>
       </c>
-      <c r="C60" s="56"/>
-      <c r="D60" s="50"/>
+      <c r="C60" s="66"/>
+      <c r="D60" s="54"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="32" t="s">
@@ -2058,10 +2180,10 @@
       <c r="B62" s="40">
         <v>2</v>
       </c>
-      <c r="C62" s="53" t="s">
+      <c r="C62" s="63" t="s">
         <v>74</v>
       </c>
-      <c r="D62" s="54"/>
+      <c r="D62" s="64"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="10" t="s">
@@ -2070,8 +2192,8 @@
       <c r="B63" s="38">
         <v>5</v>
       </c>
-      <c r="C63" s="55"/>
-      <c r="D63" s="49"/>
+      <c r="C63" s="65"/>
+      <c r="D63" s="53"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="10" t="s">
@@ -2080,31 +2202,245 @@
       <c r="B64" s="38">
         <v>0</v>
       </c>
-      <c r="C64" s="55"/>
-      <c r="D64" s="49"/>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C64" s="65"/>
+      <c r="D64" s="53"/>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" s="10" t="s">
         <v>54</v>
       </c>
       <c r="B65" s="38">
         <v>8</v>
       </c>
-      <c r="C65" s="55"/>
-      <c r="D65" s="49"/>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C65" s="65"/>
+      <c r="D65" s="53"/>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" s="11" t="s">
         <v>43</v>
       </c>
       <c r="B66" s="37">
         <v>1</v>
       </c>
-      <c r="C66" s="56"/>
-      <c r="D66" s="50"/>
+      <c r="C66" s="66"/>
+      <c r="D66" s="54"/>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A67" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="B67" s="45"/>
+      <c r="C67" s="45"/>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A68" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="B68" s="44">
+        <v>1</v>
+      </c>
+      <c r="C68" s="57">
+        <f>(100/($B$71*$B$71-100))*SIN((4*J$7)/SQRT($B$72*$B$72 + 14 * $B$72 + 45))</f>
+        <v>-1.0965282417577722</v>
+      </c>
+      <c r="D68" s="58"/>
+      <c r="J68">
+        <v>1</v>
+      </c>
+      <c r="K68">
+        <v>2</v>
+      </c>
+      <c r="L68">
+        <v>3</v>
+      </c>
+      <c r="M68">
+        <v>4</v>
+      </c>
+      <c r="N68">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A69" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B69" s="46">
+        <v>5</v>
+      </c>
+      <c r="C69" s="59">
+        <f>(100/($B$71*$B$71-100))*SIN((4*K$7)/SQRT($B$72*$B$72 + 14 * $B$72 + 45))</f>
+        <v>-2.0149550743927005</v>
+      </c>
+      <c r="D69" s="60"/>
+      <c r="J69">
+        <f>(100/($B$71*$B$71-100))*SIN((4*J$7)/SQRT($B$72*$B$72 + 14 * $B$72 + 45))</f>
+        <v>-1.0965282417577722</v>
+      </c>
+      <c r="K69">
+        <f t="shared" ref="K69:N69" si="0">(100/($B$71*$B$71-100))*SIN((4*K$7)/SQRT($B$72*$B$72 + 14 * $B$72 + 45))</f>
+        <v>-2.0149550743927005</v>
+      </c>
+      <c r="L69">
+        <f t="shared" si="0"/>
+        <v>-2.6061068543638726</v>
+      </c>
+      <c r="M69">
+        <f t="shared" si="0"/>
+        <v>-2.7739669347588958</v>
+      </c>
+      <c r="N69">
+        <f t="shared" si="0"/>
+        <v>-2.491270977355259</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A70" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B70" s="46">
+        <v>5</v>
+      </c>
+      <c r="C70" s="59">
+        <f>(100/($B$71*$B$71-100))*SIN((4*L$7)/SQRT($B$72*$B$72 + 14 * $B$72 + 45))</f>
+        <v>-2.6061068543638726</v>
+      </c>
+      <c r="D70" s="60"/>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A71" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B71" s="46">
+        <v>8</v>
+      </c>
+      <c r="C71" s="59">
+        <f>(100/($B$71*$B$71-100))*SIN((4*M$7)/SQRT($B$72*$B$72 + 14 * $B$72 + 45))</f>
+        <v>-2.7739669347588958</v>
+      </c>
+      <c r="D71" s="60"/>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A72" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B72" s="47">
+        <v>-9.0009999999999994</v>
+      </c>
+      <c r="C72" s="61">
+        <f>(100/($B$71*$B$71-100))*SIN((4*N$7)/SQRT($B$72*$B$72 + 14 * $B$72 + 45))</f>
+        <v>-2.491270977355259</v>
+      </c>
+      <c r="D72" s="62"/>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A73" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="B73" s="45"/>
+      <c r="C73" s="45"/>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A74" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="B74" s="44">
+        <v>1</v>
+      </c>
+      <c r="C74" s="57">
+        <f>(100/($B$77*$B$77-100))*SIN((4*J$7)/SQRT($B$78*$B$78 + 14 * $B$78 + 45))</f>
+        <v>0.89715947029458376</v>
+      </c>
+      <c r="D74" s="58"/>
+      <c r="J74">
+        <v>1</v>
+      </c>
+      <c r="K74">
+        <v>2</v>
+      </c>
+      <c r="L74">
+        <v>3</v>
+      </c>
+      <c r="M74">
+        <v>4</v>
+      </c>
+      <c r="N74">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A75" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B75" s="46">
+        <v>5</v>
+      </c>
+      <c r="C75" s="59">
+        <f>(100/($B$77*$B$77-100))*SIN((4*K$7)/SQRT($B$78*$B$78 + 14 * $B$78 + 45))</f>
+        <v>1.6485996059699282</v>
+      </c>
+      <c r="D75" s="60"/>
+      <c r="J75">
+        <f>(100/($B$77*$B$77-100))*SIN((4*J$7)/SQRT($B$78*$B$78 + 14 * $B$78 + 45))</f>
+        <v>0.89715947029458376</v>
+      </c>
+      <c r="K75">
+        <f t="shared" ref="K75:N75" si="1">(100/($B$77*$B$77-100))*SIN((4*K$7)/SQRT($B$78*$B$78 + 14 * $B$78 + 45))</f>
+        <v>1.6485996059699282</v>
+      </c>
+      <c r="L75">
+        <f t="shared" si="1"/>
+        <v>2.1322692442145454</v>
+      </c>
+      <c r="M75">
+        <f t="shared" si="1"/>
+        <v>2.2696093103107375</v>
+      </c>
+      <c r="N75">
+        <f t="shared" si="1"/>
+        <v>2.0383126184005804</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A76" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B76" s="46">
+        <v>5</v>
+      </c>
+      <c r="C76" s="59">
+        <f>(100/($B$77*$B$77-100))*SIN((4*L$7)/SQRT($B$78*$B$78 + 14 * $B$78 + 45))</f>
+        <v>2.1322692442145454</v>
+      </c>
+      <c r="D76" s="60"/>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A77" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B77" s="46">
+        <v>12</v>
+      </c>
+      <c r="C77" s="59">
+        <f>(100/($B$77*$B$77-100))*SIN((4*M$7)/SQRT($B$78*$B$78 + 14 * $B$78 + 45))</f>
+        <v>2.2696093103107375</v>
+      </c>
+      <c r="D77" s="60"/>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A78" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B78" s="47">
+        <v>-4.9989999999999997</v>
+      </c>
+      <c r="C78" s="61">
+        <f>(100/($B$77*$B$77-100))*SIN((4*N$7)/SQRT($B$78*$B$78 + 14 * $B$78 + 45))</f>
+        <v>2.0383126184005804</v>
+      </c>
+      <c r="D78" s="62"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="26">
     <mergeCell ref="C62:D66"/>
     <mergeCell ref="C50:D54"/>
     <mergeCell ref="C56:D60"/>
@@ -2121,8 +2457,412 @@
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C19:D23"/>
     <mergeCell ref="C31:D35"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="C72:D72"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H49"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="26" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" customWidth="1"/>
+    <col min="7" max="7" width="31.140625" customWidth="1"/>
+    <col min="8" max="8" width="43" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G3" t="s">
+        <v>83</v>
+      </c>
+      <c r="H3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G4" t="s">
+        <v>87</v>
+      </c>
+      <c r="H4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G5" t="s">
+        <v>84</v>
+      </c>
+      <c r="H5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="33" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C12" s="72" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C13" s="73"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="74" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C15" s="72" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C16" s="73"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="74" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C18" s="72" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C19" s="73"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="74" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C21" s="72" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C22" s="73"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="74" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C24" s="72" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C25" s="73"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="74" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C27" s="72" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C28" s="73"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="74" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C30" s="72" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C31" s="73"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="74" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C33" s="72" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C34" s="73"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="74" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C36" s="72" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C37" s="73"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="74" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C39" s="72" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C40" s="73"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="74" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C42" s="72" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C43" s="73"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="74" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C45" s="72" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C46" s="73"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="74"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="1"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="72"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="5"/>
+      <c r="B49" s="8"/>
+      <c r="C49" s="73"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C27:C28"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/тест кейсы.xlsx
+++ b/тест кейсы.xlsx
@@ -1,17 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90C1139E-AE89-4B15-9007-4F6AE170D2B9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GetF" sheetId="1" r:id="rId1"/>
     <sheet name="GetArray" sheetId="2" r:id="rId2"/>
     <sheet name="WriteToFile" sheetId="3" r:id="rId3"/>
+    <sheet name="Полное тестирование" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="128">
   <si>
     <t>b</t>
   </si>
@@ -290,12 +292,6 @@
     <t>Файл успешно записан</t>
   </si>
   <si>
-    <t>C:\Program Files/test.txt</t>
-  </si>
-  <si>
-    <t>C:\Program Files/.txt</t>
-  </si>
-  <si>
     <t>Некоректное имя файла</t>
   </si>
   <si>
@@ -329,22 +325,94 @@
     <t>№11</t>
   </si>
   <si>
-    <t>№12</t>
-  </si>
-  <si>
-    <t>C:\Program Files/a.txt</t>
-  </si>
-  <si>
     <t>C:\Program Files/aw.txt</t>
   </si>
   <si>
     <t>[]</t>
+  </si>
+  <si>
+    <t>C:\Program Files\test.txt</t>
+  </si>
+  <si>
+    <t>C:\Program Files/</t>
+  </si>
+  <si>
+    <t>Массив значений не может быть пустым</t>
+  </si>
+  <si>
+    <t>C:\Program Files/con.txt</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>-1,37153012446425, -2,38537456612678, -2,77712962367445, -2,44462825553048, -1,47458454604174</t>
+  </si>
+  <si>
+    <t>C:\Program Files\con.txt</t>
+  </si>
+  <si>
+    <t>C:\Program Files\test*.txt</t>
+  </si>
+  <si>
+    <t>C:\Program Files\</t>
+  </si>
+  <si>
+    <t>-4.999</t>
+  </si>
+  <si>
+    <t>-9.001</t>
+  </si>
+  <si>
+    <t>n должен быть больше &gt; 0</t>
+  </si>
+  <si>
+    <t>b != -10</t>
+  </si>
+  <si>
+    <t>b != 10</t>
+  </si>
+  <si>
+    <t>-1,37153012446425, -2,38537456612678, -2,77712962367445</t>
+  </si>
+  <si>
+    <t>answer</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>x2</t>
+  </si>
+  <si>
+    <t>x1</t>
+  </si>
+  <si>
+    <t>Передан пустой массив данных</t>
+  </si>
+  <si>
+    <t>x1 не число</t>
+  </si>
+  <si>
+    <t>х2 не число</t>
+  </si>
+  <si>
+    <t>n не число</t>
+  </si>
+  <si>
+    <t>b не число</t>
+  </si>
+  <si>
+    <t>c не число</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000000000000"/>
     <numFmt numFmtId="165" formatCode="0.000000000000000"/>
@@ -398,7 +466,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -534,6 +602,47 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -616,21 +725,57 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -640,88 +785,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -759,7 +868,7 @@
         <xdr:cNvPr id="3" name="Рисунок 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -803,7 +912,7 @@
         <xdr:cNvPr id="2" name="Рисунок 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67A88DF1-CBF2-4EEB-A375-A197480B84F2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67A88DF1-CBF2-4EEB-A375-A197480B84F2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1094,7 +1203,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E50"/>
   <sheetViews>
     <sheetView topLeftCell="A15" workbookViewId="0">
@@ -1174,18 +1283,18 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="48" t="s">
+      <c r="A10" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="48"/>
-      <c r="C10" s="48"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="40"/>
     </row>
     <row r="11" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="49" t="s">
+      <c r="A11" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="49"/>
-      <c r="C11" s="49"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="41"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -1228,7 +1337,7 @@
       <c r="B16" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="55" t="s">
+      <c r="C16" s="47" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1237,7 +1346,7 @@
       <c r="B17" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="56"/>
+      <c r="C17" s="48"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
@@ -1253,7 +1362,7 @@
       <c r="B19" s="16">
         <v>10</v>
       </c>
-      <c r="C19" s="53" t="s">
+      <c r="C19" s="45" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1264,7 +1373,7 @@
       <c r="B20" s="17">
         <v>0</v>
       </c>
-      <c r="C20" s="54"/>
+      <c r="C20" s="46"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
@@ -1278,7 +1387,7 @@
       <c r="B22" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="51" t="s">
+      <c r="C22" s="43" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1287,7 +1396,7 @@
       <c r="B23" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="52"/>
+      <c r="C23" s="44"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="18" t="s">
@@ -1301,7 +1410,7 @@
       <c r="B25" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="55" t="s">
+      <c r="C25" s="47" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1310,7 +1419,7 @@
       <c r="B26" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="56"/>
+      <c r="C26" s="48"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
@@ -1324,7 +1433,7 @@
       <c r="B28" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C28" s="53" t="s">
+      <c r="C28" s="45" t="s">
         <v>30</v>
       </c>
       <c r="E28" t="s">
@@ -1336,7 +1445,7 @@
       <c r="B29" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="C29" s="54"/>
+      <c r="C29" s="46"/>
       <c r="E29" t="s">
         <v>50</v>
       </c>
@@ -1356,7 +1465,7 @@
       <c r="B31" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C31" s="53" t="s">
+      <c r="C31" s="45" t="s">
         <v>30</v>
       </c>
       <c r="E31" t="s">
@@ -1368,7 +1477,7 @@
       <c r="B32" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C32" s="54"/>
+      <c r="C32" s="46"/>
       <c r="E32" t="s">
         <v>53</v>
       </c>
@@ -1385,7 +1494,7 @@
       <c r="B34" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C34" s="53" t="s">
+      <c r="C34" s="45" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1394,14 +1503,14 @@
       <c r="B35" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="C35" s="54"/>
+      <c r="C35" s="46"/>
     </row>
     <row r="36" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="50" t="s">
+      <c r="A36" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="B36" s="50"/>
-      <c r="C36" s="50"/>
+      <c r="B36" s="42"/>
+      <c r="C36" s="42"/>
     </row>
     <row r="37" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
@@ -1415,7 +1524,7 @@
       <c r="B38" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C38" s="51" t="s">
+      <c r="C38" s="43" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1424,7 +1533,7 @@
       <c r="B39" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="C39" s="52"/>
+      <c r="C39" s="44"/>
     </row>
     <row r="40" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
@@ -1438,7 +1547,7 @@
       <c r="B41" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C41" s="51" t="s">
+      <c r="C41" s="43" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1447,7 +1556,7 @@
       <c r="B42" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="C42" s="52"/>
+      <c r="C42" s="44"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
@@ -1536,7 +1645,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N78"/>
   <sheetViews>
     <sheetView topLeftCell="A55" workbookViewId="0">
@@ -1559,40 +1668,40 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G2" s="43" t="s">
+      <c r="G2" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="I2" s="43" t="s">
+      <c r="I2" s="39" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G3" s="42" t="s">
+      <c r="G3" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="I3" s="42" t="s">
+      <c r="I3" s="38" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G4" s="42" t="s">
+      <c r="G4" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="I4" s="42" t="s">
+      <c r="I4" s="38" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="67" t="s">
+      <c r="A5" s="53" t="s">
         <v>65</v>
       </c>
-      <c r="B5" s="67"/>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
-      <c r="G5" s="41" t="s">
+      <c r="B5" s="53"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="G5" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="I5" s="41" t="s">
+      <c r="I5" s="37" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1608,10 +1717,10 @@
       <c r="B7" s="29">
         <v>1</v>
       </c>
-      <c r="C7" s="69">
+      <c r="C7" s="55">
         <v>-1.3715301244642522</v>
       </c>
-      <c r="D7" s="58"/>
+      <c r="D7" s="56"/>
       <c r="J7">
         <v>1</v>
       </c>
@@ -1635,10 +1744,10 @@
       <c r="B8" s="28">
         <v>5</v>
       </c>
-      <c r="C8" s="70">
+      <c r="C8" s="57">
         <v>-2.3853745661267767</v>
       </c>
-      <c r="D8" s="60"/>
+      <c r="D8" s="58"/>
       <c r="J8">
         <f>(100/($B$10*$B$10-100))*SIN((4*J$7)/SQRT($B$11*$B$11 + 14 * $B$11 + 45))</f>
         <v>-1.3715301244642522</v>
@@ -1667,10 +1776,10 @@
       <c r="B9" s="28">
         <v>5</v>
       </c>
-      <c r="C9" s="70">
+      <c r="C9" s="57">
         <v>-2.777129623674452</v>
       </c>
-      <c r="D9" s="60"/>
+      <c r="D9" s="58"/>
     </row>
     <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
@@ -1679,10 +1788,10 @@
       <c r="B10" s="28">
         <v>8</v>
       </c>
-      <c r="C10" s="70">
+      <c r="C10" s="57">
         <v>-2.4446282555304797</v>
       </c>
-      <c r="D10" s="60"/>
+      <c r="D10" s="58"/>
     </row>
     <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
@@ -1691,10 +1800,10 @@
       <c r="B11" s="27">
         <v>1</v>
       </c>
-      <c r="C11" s="71">
+      <c r="C11" s="59">
         <v>-1.4745845460417426</v>
       </c>
-      <c r="D11" s="62"/>
+      <c r="D11" s="60"/>
     </row>
     <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="36" t="s">
@@ -1710,10 +1819,10 @@
       <c r="B13" s="35">
         <v>1</v>
       </c>
-      <c r="C13" s="63" t="s">
+      <c r="C13" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="D13" s="64"/>
+      <c r="D13" s="50"/>
     </row>
     <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
@@ -1722,8 +1831,8 @@
       <c r="B14" s="31">
         <v>3</v>
       </c>
-      <c r="C14" s="65"/>
-      <c r="D14" s="53"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="45"/>
     </row>
     <row r="15" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
@@ -1732,8 +1841,8 @@
       <c r="B15" s="31">
         <v>3</v>
       </c>
-      <c r="C15" s="65"/>
-      <c r="D15" s="53"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="45"/>
     </row>
     <row r="16" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
@@ -1742,8 +1851,8 @@
       <c r="B16" s="31">
         <v>8</v>
       </c>
-      <c r="C16" s="65"/>
-      <c r="D16" s="53"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="45"/>
     </row>
     <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
@@ -1752,8 +1861,8 @@
       <c r="B17" s="34">
         <v>1</v>
       </c>
-      <c r="C17" s="66"/>
-      <c r="D17" s="54"/>
+      <c r="C17" s="52"/>
+      <c r="D17" s="46"/>
     </row>
     <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="33" t="s">
@@ -1767,10 +1876,10 @@
       <c r="B19" s="29">
         <v>1</v>
       </c>
-      <c r="C19" s="63" t="s">
+      <c r="C19" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="D19" s="64"/>
+      <c r="D19" s="50"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
@@ -1779,8 +1888,8 @@
       <c r="B20" s="28">
         <v>10</v>
       </c>
-      <c r="C20" s="65"/>
-      <c r="D20" s="53"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="45"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
@@ -1789,8 +1898,8 @@
       <c r="B21" s="28">
         <v>10</v>
       </c>
-      <c r="C21" s="65"/>
-      <c r="D21" s="53"/>
+      <c r="C21" s="51"/>
+      <c r="D21" s="45"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
@@ -1799,8 +1908,8 @@
       <c r="B22" s="28">
         <v>10</v>
       </c>
-      <c r="C22" s="65"/>
-      <c r="D22" s="53"/>
+      <c r="C22" s="51"/>
+      <c r="D22" s="45"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
@@ -1809,8 +1918,8 @@
       <c r="B23" s="27">
         <v>1</v>
       </c>
-      <c r="C23" s="66"/>
-      <c r="D23" s="54"/>
+      <c r="C23" s="52"/>
+      <c r="D23" s="46"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="33" t="s">
@@ -1824,10 +1933,10 @@
       <c r="B25" s="29">
         <v>1</v>
       </c>
-      <c r="C25" s="63" t="s">
+      <c r="C25" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="D25" s="64"/>
+      <c r="D25" s="50"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
@@ -1836,8 +1945,8 @@
       <c r="B26" s="28">
         <v>10</v>
       </c>
-      <c r="C26" s="65"/>
-      <c r="D26" s="53"/>
+      <c r="C26" s="51"/>
+      <c r="D26" s="45"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
@@ -1846,8 +1955,8 @@
       <c r="B27" s="28">
         <v>10</v>
       </c>
-      <c r="C27" s="65"/>
-      <c r="D27" s="53"/>
+      <c r="C27" s="51"/>
+      <c r="D27" s="45"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
@@ -1856,8 +1965,8 @@
       <c r="B28" s="28">
         <v>-10</v>
       </c>
-      <c r="C28" s="65"/>
-      <c r="D28" s="53"/>
+      <c r="C28" s="51"/>
+      <c r="D28" s="45"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
@@ -1866,8 +1975,8 @@
       <c r="B29" s="27">
         <v>1</v>
       </c>
-      <c r="C29" s="66"/>
-      <c r="D29" s="54"/>
+      <c r="C29" s="52"/>
+      <c r="D29" s="46"/>
     </row>
     <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="33" t="s">
@@ -1881,10 +1990,10 @@
       <c r="B31" s="29">
         <v>1</v>
       </c>
-      <c r="C31" s="63" t="s">
+      <c r="C31" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="D31" s="64"/>
+      <c r="D31" s="50"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
@@ -1893,8 +2002,8 @@
       <c r="B32" s="28">
         <v>10</v>
       </c>
-      <c r="C32" s="65"/>
-      <c r="D32" s="53"/>
+      <c r="C32" s="51"/>
+      <c r="D32" s="45"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
@@ -1903,8 +2012,8 @@
       <c r="B33" s="28">
         <v>10</v>
       </c>
-      <c r="C33" s="65"/>
-      <c r="D33" s="53"/>
+      <c r="C33" s="51"/>
+      <c r="D33" s="45"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
@@ -1913,8 +2022,8 @@
       <c r="B34" s="28">
         <v>8</v>
       </c>
-      <c r="C34" s="65"/>
-      <c r="D34" s="53"/>
+      <c r="C34" s="51"/>
+      <c r="D34" s="45"/>
     </row>
     <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
@@ -1923,8 +2032,8 @@
       <c r="B35" s="27">
         <v>-6</v>
       </c>
-      <c r="C35" s="66"/>
-      <c r="D35" s="54"/>
+      <c r="C35" s="52"/>
+      <c r="D35" s="46"/>
     </row>
     <row r="36" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="33" t="s">
@@ -1938,10 +2047,10 @@
       <c r="B37" s="29">
         <v>1</v>
       </c>
-      <c r="C37" s="63" t="s">
+      <c r="C37" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="D37" s="64"/>
+      <c r="D37" s="50"/>
     </row>
     <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
@@ -1950,8 +2059,8 @@
       <c r="B38" s="28">
         <v>10</v>
       </c>
-      <c r="C38" s="65"/>
-      <c r="D38" s="53"/>
+      <c r="C38" s="51"/>
+      <c r="D38" s="45"/>
     </row>
     <row r="39" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
@@ -1960,8 +2069,8 @@
       <c r="B39" s="28">
         <v>10</v>
       </c>
-      <c r="C39" s="65"/>
-      <c r="D39" s="53"/>
+      <c r="C39" s="51"/>
+      <c r="D39" s="45"/>
     </row>
     <row r="40" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="10" t="s">
@@ -1970,8 +2079,8 @@
       <c r="B40" s="28">
         <v>8</v>
       </c>
-      <c r="C40" s="65"/>
-      <c r="D40" s="53"/>
+      <c r="C40" s="51"/>
+      <c r="D40" s="45"/>
     </row>
     <row r="41" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
@@ -1980,8 +2089,8 @@
       <c r="B41" s="27">
         <v>-9</v>
       </c>
-      <c r="C41" s="66"/>
-      <c r="D41" s="54"/>
+      <c r="C41" s="52"/>
+      <c r="D41" s="46"/>
     </row>
     <row r="42" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="33" t="s">
@@ -1995,10 +2104,10 @@
       <c r="B43" s="29">
         <v>1</v>
       </c>
-      <c r="C43" s="63" t="s">
+      <c r="C43" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="D43" s="64"/>
+      <c r="D43" s="50"/>
     </row>
     <row r="44" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="10" t="s">
@@ -2007,8 +2116,8 @@
       <c r="B44" s="28">
         <v>10</v>
       </c>
-      <c r="C44" s="65"/>
-      <c r="D44" s="53"/>
+      <c r="C44" s="51"/>
+      <c r="D44" s="45"/>
     </row>
     <row r="45" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="10" t="s">
@@ -2017,8 +2126,8 @@
       <c r="B45" s="28">
         <v>1</v>
       </c>
-      <c r="C45" s="65"/>
-      <c r="D45" s="53"/>
+      <c r="C45" s="51"/>
+      <c r="D45" s="45"/>
     </row>
     <row r="46" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="10" t="s">
@@ -2027,8 +2136,8 @@
       <c r="B46" s="28">
         <v>8</v>
       </c>
-      <c r="C46" s="65"/>
-      <c r="D46" s="53"/>
+      <c r="C46" s="51"/>
+      <c r="D46" s="45"/>
     </row>
     <row r="47" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
@@ -2037,16 +2146,16 @@
       <c r="B47" s="27">
         <v>-5</v>
       </c>
-      <c r="C47" s="66"/>
-      <c r="D47" s="54"/>
+      <c r="C47" s="52"/>
+      <c r="D47" s="46"/>
     </row>
     <row r="48" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="68" t="s">
+      <c r="A48" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="B48" s="67"/>
-      <c r="C48" s="67"/>
-      <c r="D48" s="67"/>
+      <c r="B48" s="53"/>
+      <c r="C48" s="53"/>
+      <c r="D48" s="53"/>
     </row>
     <row r="49" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="32" t="s">
@@ -2062,10 +2171,10 @@
       <c r="B50" s="29">
         <v>2</v>
       </c>
-      <c r="C50" s="63" t="s">
+      <c r="C50" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="D50" s="64"/>
+      <c r="D50" s="50"/>
     </row>
     <row r="51" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="10" t="s">
@@ -2074,8 +2183,8 @@
       <c r="B51" s="28">
         <v>5</v>
       </c>
-      <c r="C51" s="65"/>
-      <c r="D51" s="53"/>
+      <c r="C51" s="51"/>
+      <c r="D51" s="45"/>
     </row>
     <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="10" t="s">
@@ -2084,8 +2193,8 @@
       <c r="B52" s="28">
         <v>1</v>
       </c>
-      <c r="C52" s="65"/>
-      <c r="D52" s="53"/>
+      <c r="C52" s="51"/>
+      <c r="D52" s="45"/>
     </row>
     <row r="53" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="10" t="s">
@@ -2094,8 +2203,8 @@
       <c r="B53" s="28">
         <v>8</v>
       </c>
-      <c r="C53" s="65"/>
-      <c r="D53" s="53"/>
+      <c r="C53" s="51"/>
+      <c r="D53" s="45"/>
     </row>
     <row r="54" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="11" t="s">
@@ -2104,8 +2213,8 @@
       <c r="B54" s="27">
         <v>-8.9990000000000006</v>
       </c>
-      <c r="C54" s="66"/>
-      <c r="D54" s="54"/>
+      <c r="C54" s="52"/>
+      <c r="D54" s="46"/>
     </row>
     <row r="55" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="32" t="s">
@@ -2121,10 +2230,10 @@
       <c r="B56" s="29">
         <v>2</v>
       </c>
-      <c r="C56" s="63" t="s">
+      <c r="C56" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="D56" s="64"/>
+      <c r="D56" s="50"/>
     </row>
     <row r="57" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="10" t="s">
@@ -2133,8 +2242,8 @@
       <c r="B57" s="28">
         <v>5</v>
       </c>
-      <c r="C57" s="65"/>
-      <c r="D57" s="53"/>
+      <c r="C57" s="51"/>
+      <c r="D57" s="45"/>
     </row>
     <row r="58" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="10" t="s">
@@ -2143,8 +2252,8 @@
       <c r="B58" s="28">
         <v>1</v>
       </c>
-      <c r="C58" s="65"/>
-      <c r="D58" s="53"/>
+      <c r="C58" s="51"/>
+      <c r="D58" s="45"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="10" t="s">
@@ -2153,8 +2262,8 @@
       <c r="B59" s="28">
         <v>8</v>
       </c>
-      <c r="C59" s="65"/>
-      <c r="D59" s="53"/>
+      <c r="C59" s="51"/>
+      <c r="D59" s="45"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="11" t="s">
@@ -2163,87 +2272,87 @@
       <c r="B60" s="27">
         <v>-5.0010000000000003</v>
       </c>
-      <c r="C60" s="66"/>
-      <c r="D60" s="54"/>
+      <c r="C60" s="52"/>
+      <c r="D60" s="46"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="B61" s="39"/>
-      <c r="C61" s="39"/>
+      <c r="B61" s="31"/>
+      <c r="C61" s="31"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="B62" s="40">
+      <c r="B62" s="29">
         <v>2</v>
       </c>
-      <c r="C62" s="63" t="s">
+      <c r="C62" s="49" t="s">
         <v>74</v>
       </c>
-      <c r="D62" s="64"/>
+      <c r="D62" s="50"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="B63" s="38">
-        <v>5</v>
-      </c>
-      <c r="C63" s="65"/>
-      <c r="D63" s="53"/>
+      <c r="B63" s="28">
+        <v>5</v>
+      </c>
+      <c r="C63" s="51"/>
+      <c r="D63" s="45"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B64" s="38">
+      <c r="B64" s="28">
         <v>0</v>
       </c>
-      <c r="C64" s="65"/>
-      <c r="D64" s="53"/>
+      <c r="C64" s="51"/>
+      <c r="D64" s="45"/>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="B65" s="38">
+      <c r="B65" s="28">
         <v>8</v>
       </c>
-      <c r="C65" s="65"/>
-      <c r="D65" s="53"/>
+      <c r="C65" s="51"/>
+      <c r="D65" s="45"/>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="B66" s="37">
-        <v>1</v>
-      </c>
-      <c r="C66" s="66"/>
-      <c r="D66" s="54"/>
+      <c r="B66" s="27">
+        <v>1</v>
+      </c>
+      <c r="C66" s="52"/>
+      <c r="D66" s="46"/>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="B67" s="45"/>
-      <c r="C67" s="45"/>
+      <c r="B67" s="31"/>
+      <c r="C67" s="31"/>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="B68" s="44">
-        <v>1</v>
-      </c>
-      <c r="C68" s="57">
+      <c r="B68" s="29">
+        <v>1</v>
+      </c>
+      <c r="C68" s="61">
         <f>(100/($B$71*$B$71-100))*SIN((4*J$7)/SQRT($B$72*$B$72 + 14 * $B$72 + 45))</f>
         <v>-1.0965282417577722</v>
       </c>
-      <c r="D68" s="58"/>
+      <c r="D68" s="56"/>
       <c r="J68">
         <v>1</v>
       </c>
@@ -2264,14 +2373,14 @@
       <c r="A69" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="B69" s="46">
-        <v>5</v>
-      </c>
-      <c r="C69" s="59">
+      <c r="B69" s="28">
+        <v>5</v>
+      </c>
+      <c r="C69" s="62">
         <f>(100/($B$71*$B$71-100))*SIN((4*K$7)/SQRT($B$72*$B$72 + 14 * $B$72 + 45))</f>
         <v>-2.0149550743927005</v>
       </c>
-      <c r="D69" s="60"/>
+      <c r="D69" s="58"/>
       <c r="J69">
         <f>(100/($B$71*$B$71-100))*SIN((4*J$7)/SQRT($B$72*$B$72 + 14 * $B$72 + 45))</f>
         <v>-1.0965282417577722</v>
@@ -2297,60 +2406,60 @@
       <c r="A70" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B70" s="46">
-        <v>5</v>
-      </c>
-      <c r="C70" s="59">
+      <c r="B70" s="28">
+        <v>5</v>
+      </c>
+      <c r="C70" s="62">
         <f>(100/($B$71*$B$71-100))*SIN((4*L$7)/SQRT($B$72*$B$72 + 14 * $B$72 + 45))</f>
         <v>-2.6061068543638726</v>
       </c>
-      <c r="D70" s="60"/>
+      <c r="D70" s="58"/>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="B71" s="46">
+      <c r="B71" s="28">
         <v>8</v>
       </c>
-      <c r="C71" s="59">
+      <c r="C71" s="62">
         <f>(100/($B$71*$B$71-100))*SIN((4*M$7)/SQRT($B$72*$B$72 + 14 * $B$72 + 45))</f>
         <v>-2.7739669347588958</v>
       </c>
-      <c r="D71" s="60"/>
+      <c r="D71" s="58"/>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="B72" s="47">
+      <c r="B72" s="27">
         <v>-9.0009999999999994</v>
       </c>
-      <c r="C72" s="61">
+      <c r="C72" s="63">
         <f>(100/($B$71*$B$71-100))*SIN((4*N$7)/SQRT($B$72*$B$72 + 14 * $B$72 + 45))</f>
         <v>-2.491270977355259</v>
       </c>
-      <c r="D72" s="62"/>
+      <c r="D72" s="60"/>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="B73" s="45"/>
-      <c r="C73" s="45"/>
+      <c r="B73" s="31"/>
+      <c r="C73" s="31"/>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="B74" s="44">
-        <v>1</v>
-      </c>
-      <c r="C74" s="57">
+      <c r="B74" s="29">
+        <v>1</v>
+      </c>
+      <c r="C74" s="61">
         <f>(100/($B$77*$B$77-100))*SIN((4*J$7)/SQRT($B$78*$B$78 + 14 * $B$78 + 45))</f>
         <v>0.89715947029458376</v>
       </c>
-      <c r="D74" s="58"/>
+      <c r="D74" s="56"/>
       <c r="J74">
         <v>1</v>
       </c>
@@ -2371,14 +2480,14 @@
       <c r="A75" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="B75" s="46">
-        <v>5</v>
-      </c>
-      <c r="C75" s="59">
+      <c r="B75" s="28">
+        <v>5</v>
+      </c>
+      <c r="C75" s="62">
         <f>(100/($B$77*$B$77-100))*SIN((4*K$7)/SQRT($B$78*$B$78 + 14 * $B$78 + 45))</f>
         <v>1.6485996059699282</v>
       </c>
-      <c r="D75" s="60"/>
+      <c r="D75" s="58"/>
       <c r="J75">
         <f>(100/($B$77*$B$77-100))*SIN((4*J$7)/SQRT($B$78*$B$78 + 14 * $B$78 + 45))</f>
         <v>0.89715947029458376</v>
@@ -2404,43 +2513,53 @@
       <c r="A76" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B76" s="46">
-        <v>5</v>
-      </c>
-      <c r="C76" s="59">
+      <c r="B76" s="28">
+        <v>5</v>
+      </c>
+      <c r="C76" s="62">
         <f>(100/($B$77*$B$77-100))*SIN((4*L$7)/SQRT($B$78*$B$78 + 14 * $B$78 + 45))</f>
         <v>2.1322692442145454</v>
       </c>
-      <c r="D76" s="60"/>
+      <c r="D76" s="58"/>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="B77" s="46">
+      <c r="B77" s="28">
         <v>12</v>
       </c>
-      <c r="C77" s="59">
+      <c r="C77" s="62">
         <f>(100/($B$77*$B$77-100))*SIN((4*M$7)/SQRT($B$78*$B$78 + 14 * $B$78 + 45))</f>
         <v>2.2696093103107375</v>
       </c>
-      <c r="D77" s="60"/>
+      <c r="D77" s="58"/>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="B78" s="47">
+      <c r="B78" s="27">
         <v>-4.9989999999999997</v>
       </c>
-      <c r="C78" s="61">
+      <c r="C78" s="63">
         <f>(100/($B$77*$B$77-100))*SIN((4*N$7)/SQRT($B$78*$B$78 + 14 * $B$78 + 45))</f>
         <v>2.0383126184005804</v>
       </c>
-      <c r="D78" s="62"/>
+      <c r="D78" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="C78:D78"/>
     <mergeCell ref="C62:D66"/>
     <mergeCell ref="C50:D54"/>
     <mergeCell ref="C56:D60"/>
@@ -2457,16 +2576,6 @@
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C19:D23"/>
     <mergeCell ref="C31:D35"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="C72:D72"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2474,11 +2583,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2531,7 +2640,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -2544,9 +2653,9 @@
         <v>79</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C12" s="72" t="s">
+        <v>102</v>
+      </c>
+      <c r="C12" s="64" t="s">
         <v>88</v>
       </c>
     </row>
@@ -2555,12 +2664,12 @@
         <v>80</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="C13" s="73"/>
+        <v>90</v>
+      </c>
+      <c r="C13" s="65"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="74" t="s">
+      <c r="A14" s="33" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2569,10 +2678,10 @@
         <v>79</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C15" s="72" t="s">
-        <v>91</v>
+        <v>103</v>
+      </c>
+      <c r="C15" s="64" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -2580,12 +2689,12 @@
         <v>80</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="C16" s="73"/>
+        <v>90</v>
+      </c>
+      <c r="C16" s="65"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="74" t="s">
+      <c r="A17" s="33" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2594,10 +2703,10 @@
         <v>79</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C18" s="64" t="s">
         <v>104</v>
-      </c>
-      <c r="C18" s="72" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -2605,12 +2714,12 @@
         <v>80</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="C19" s="73"/>
+        <v>101</v>
+      </c>
+      <c r="C19" s="65"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="74" t="s">
+      <c r="A20" s="33" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2619,10 +2728,10 @@
         <v>79</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C21" s="72" t="s">
-        <v>91</v>
+        <v>92</v>
+      </c>
+      <c r="C21" s="64" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -2630,12 +2739,12 @@
         <v>80</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="C22" s="73"/>
+        <v>90</v>
+      </c>
+      <c r="C22" s="65"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="74" t="s">
+      <c r="A23" s="33" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2644,10 +2753,10 @@
         <v>79</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="C24" s="72" t="s">
-        <v>91</v>
+        <v>93</v>
+      </c>
+      <c r="C24" s="64" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -2655,12 +2764,12 @@
         <v>80</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="C25" s="73"/>
+        <v>90</v>
+      </c>
+      <c r="C25" s="65"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="74" t="s">
+      <c r="A26" s="33" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2669,10 +2778,10 @@
         <v>79</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C27" s="72" t="s">
-        <v>91</v>
+        <v>94</v>
+      </c>
+      <c r="C27" s="64" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -2680,12 +2789,12 @@
         <v>80</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="C28" s="73"/>
+        <v>90</v>
+      </c>
+      <c r="C28" s="65"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="74" t="s">
+      <c r="A29" s="33" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2694,10 +2803,10 @@
         <v>79</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C30" s="72" t="s">
-        <v>91</v>
+        <v>95</v>
+      </c>
+      <c r="C30" s="64" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -2705,12 +2814,12 @@
         <v>80</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="C31" s="73"/>
+        <v>90</v>
+      </c>
+      <c r="C31" s="65"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="74" t="s">
+      <c r="A32" s="33" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2719,10 +2828,10 @@
         <v>79</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C33" s="72" t="s">
-        <v>91</v>
+        <v>96</v>
+      </c>
+      <c r="C33" s="64" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -2730,12 +2839,12 @@
         <v>80</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="C34" s="73"/>
+        <v>90</v>
+      </c>
+      <c r="C34" s="65"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="74" t="s">
+      <c r="A35" s="33" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2744,10 +2853,10 @@
         <v>79</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C36" s="72" t="s">
-        <v>91</v>
+        <v>97</v>
+      </c>
+      <c r="C36" s="64" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -2755,12 +2864,12 @@
         <v>80</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="C37" s="73"/>
+        <v>90</v>
+      </c>
+      <c r="C37" s="65"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="74" t="s">
+      <c r="A38" s="33" t="s">
         <v>34</v>
       </c>
     </row>
@@ -2769,10 +2878,10 @@
         <v>79</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="C39" s="72" t="s">
-        <v>91</v>
+        <v>98</v>
+      </c>
+      <c r="C39" s="64" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -2780,13 +2889,13 @@
         <v>80</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="C40" s="73"/>
+        <v>90</v>
+      </c>
+      <c r="C40" s="65"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="74" t="s">
-        <v>101</v>
+      <c r="A41" s="33" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -2794,10 +2903,10 @@
         <v>79</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="C42" s="72" t="s">
-        <v>88</v>
+        <v>105</v>
+      </c>
+      <c r="C42" s="64" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -2805,50 +2914,44 @@
         <v>80</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="C43" s="73"/>
+        <v>90</v>
+      </c>
+      <c r="C43" s="65"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="74" t="s">
-        <v>102</v>
-      </c>
+      <c r="A44" s="33"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C45" s="72" t="s">
-        <v>88</v>
-      </c>
+      <c r="A45" s="1"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="64"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B46" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="C46" s="73"/>
+      <c r="A46" s="5"/>
+      <c r="B46" s="8"/>
+      <c r="C46" s="65"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="74"/>
+      <c r="A47" s="33"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" s="3"/>
-      <c r="C48" s="72"/>
+      <c r="C48" s="64"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="5"/>
       <c r="B49" s="8"/>
-      <c r="C49" s="73"/>
+      <c r="C49" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C24:C25"/>
     <mergeCell ref="C48:C49"/>
     <mergeCell ref="C30:C31"/>
     <mergeCell ref="C33:C34"/>
@@ -2856,12 +2959,1132 @@
     <mergeCell ref="C39:C40"/>
     <mergeCell ref="C42:C43"/>
     <mergeCell ref="C45:C46"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="C27:C28"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3521AD8-2C74-436D-8B7D-3E8027727BCA}">
+  <dimension ref="A1:T35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="9.140625" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B1" s="68" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="H1" s="68" t="s">
+        <v>72</v>
+      </c>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B2" s="68" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="H2" s="68" t="s">
+        <v>70</v>
+      </c>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="68"/>
+      <c r="L2" s="68"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B3" s="68" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="H3" s="68" t="s">
+        <v>68</v>
+      </c>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="68"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B4" s="68" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="H4" s="68" t="s">
+        <v>66</v>
+      </c>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68"/>
+      <c r="K4" s="68"/>
+      <c r="L4" s="68"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B5" s="68" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
+      <c r="H5" s="68" t="s">
+        <v>63</v>
+      </c>
+      <c r="I5" s="68"/>
+      <c r="J5" s="68"/>
+      <c r="K5" s="68"/>
+      <c r="L5" s="68"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B6" s="68" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="68"/>
+      <c r="H6" s="68" t="s">
+        <v>78</v>
+      </c>
+      <c r="I6" s="68"/>
+      <c r="J6" s="68"/>
+      <c r="K6" s="68"/>
+      <c r="L6" s="68"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B7" s="68" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" s="68"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="68"/>
+      <c r="H7" s="68" t="s">
+        <v>77</v>
+      </c>
+      <c r="I7" s="68"/>
+      <c r="J7" s="68"/>
+      <c r="K7" s="68"/>
+      <c r="L7" s="68"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B8" s="68" t="s">
+        <v>87</v>
+      </c>
+      <c r="C8" s="68"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="68"/>
+      <c r="H8" s="68" t="s">
+        <v>86</v>
+      </c>
+      <c r="I8" s="68"/>
+      <c r="J8" s="68"/>
+      <c r="K8" s="68"/>
+      <c r="L8" s="68"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B9" s="68" t="s">
+        <v>84</v>
+      </c>
+      <c r="C9" s="68"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="68"/>
+      <c r="H9" s="68" t="s">
+        <v>85</v>
+      </c>
+      <c r="I9" s="68"/>
+      <c r="J9" s="68"/>
+      <c r="K9" s="68"/>
+      <c r="L9" s="68"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H10" s="68" t="s">
+        <v>122</v>
+      </c>
+      <c r="I10" s="68"/>
+      <c r="J10" s="68"/>
+      <c r="K10" s="68"/>
+      <c r="L10" s="68"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" s="72" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="71" t="s">
+        <v>121</v>
+      </c>
+      <c r="C13" s="71" t="s">
+        <v>120</v>
+      </c>
+      <c r="D13" s="71" t="s">
+        <v>119</v>
+      </c>
+      <c r="E13" s="71" t="s">
+        <v>0</v>
+      </c>
+      <c r="F13" s="71" t="s">
+        <v>107</v>
+      </c>
+      <c r="G13" s="68" t="s">
+        <v>79</v>
+      </c>
+      <c r="H13" s="68"/>
+      <c r="I13" s="68"/>
+      <c r="J13" s="68"/>
+      <c r="K13" s="68" t="s">
+        <v>80</v>
+      </c>
+      <c r="L13" s="68"/>
+      <c r="M13" s="68"/>
+      <c r="N13" s="68"/>
+      <c r="O13" s="68"/>
+      <c r="P13" s="68"/>
+      <c r="Q13" s="68"/>
+      <c r="R13" s="68" t="s">
+        <v>118</v>
+      </c>
+      <c r="S13" s="68"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14" s="66">
+        <v>1</v>
+      </c>
+      <c r="C14" s="66">
+        <v>5</v>
+      </c>
+      <c r="D14" s="66">
+        <v>5</v>
+      </c>
+      <c r="E14" s="66">
+        <v>8</v>
+      </c>
+      <c r="F14" s="66">
+        <v>1</v>
+      </c>
+      <c r="G14" s="68" t="s">
+        <v>102</v>
+      </c>
+      <c r="H14" s="68"/>
+      <c r="I14" s="68"/>
+      <c r="J14" s="68"/>
+      <c r="K14" s="69" t="s">
+        <v>108</v>
+      </c>
+      <c r="L14" s="69"/>
+      <c r="M14" s="69"/>
+      <c r="N14" s="69"/>
+      <c r="O14" s="69"/>
+      <c r="P14" s="69"/>
+      <c r="Q14" s="69"/>
+      <c r="R14" s="68" t="s">
+        <v>88</v>
+      </c>
+      <c r="S14" s="68"/>
+      <c r="T14" s="7"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15" s="66">
+        <v>10</v>
+      </c>
+      <c r="C15" s="66">
+        <v>3</v>
+      </c>
+      <c r="D15" s="66">
+        <v>3</v>
+      </c>
+      <c r="E15" s="66">
+        <v>8</v>
+      </c>
+      <c r="F15" s="66">
+        <v>1</v>
+      </c>
+      <c r="G15" s="68" t="s">
+        <v>102</v>
+      </c>
+      <c r="H15" s="68"/>
+      <c r="I15" s="68"/>
+      <c r="J15" s="68"/>
+      <c r="K15" s="69" t="s">
+        <v>117</v>
+      </c>
+      <c r="L15" s="69"/>
+      <c r="M15" s="69"/>
+      <c r="N15" s="69"/>
+      <c r="O15" s="69"/>
+      <c r="P15" s="69"/>
+      <c r="Q15" s="69"/>
+      <c r="R15" s="68" t="s">
+        <v>62</v>
+      </c>
+      <c r="S15" s="68"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>3</v>
+      </c>
+      <c r="B16" s="66">
+        <v>1</v>
+      </c>
+      <c r="C16" s="66">
+        <v>5</v>
+      </c>
+      <c r="D16" s="66">
+        <v>5</v>
+      </c>
+      <c r="E16" s="66">
+        <v>10</v>
+      </c>
+      <c r="F16" s="66">
+        <v>1</v>
+      </c>
+      <c r="G16" s="68" t="s">
+        <v>102</v>
+      </c>
+      <c r="H16" s="68"/>
+      <c r="I16" s="68"/>
+      <c r="J16" s="68"/>
+      <c r="K16" s="69" t="s">
+        <v>108</v>
+      </c>
+      <c r="L16" s="69"/>
+      <c r="M16" s="69"/>
+      <c r="N16" s="69"/>
+      <c r="O16" s="69"/>
+      <c r="P16" s="69"/>
+      <c r="Q16" s="69"/>
+      <c r="R16" s="68" t="s">
+        <v>116</v>
+      </c>
+      <c r="S16" s="68"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>4</v>
+      </c>
+      <c r="B17" s="66">
+        <v>1</v>
+      </c>
+      <c r="C17" s="66">
+        <v>5</v>
+      </c>
+      <c r="D17" s="66">
+        <v>5</v>
+      </c>
+      <c r="E17" s="66">
+        <v>-10</v>
+      </c>
+      <c r="F17" s="66">
+        <v>1</v>
+      </c>
+      <c r="G17" s="68" t="s">
+        <v>102</v>
+      </c>
+      <c r="H17" s="68"/>
+      <c r="I17" s="68"/>
+      <c r="J17" s="68"/>
+      <c r="K17" s="69" t="s">
+        <v>108</v>
+      </c>
+      <c r="L17" s="69"/>
+      <c r="M17" s="69"/>
+      <c r="N17" s="69"/>
+      <c r="O17" s="69"/>
+      <c r="P17" s="69"/>
+      <c r="Q17" s="69"/>
+      <c r="R17" s="68" t="s">
+        <v>115</v>
+      </c>
+      <c r="S17" s="68"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>5</v>
+      </c>
+      <c r="B18" s="66">
+        <v>1</v>
+      </c>
+      <c r="C18" s="66">
+        <v>5</v>
+      </c>
+      <c r="D18" s="66">
+        <v>5</v>
+      </c>
+      <c r="E18" s="66">
+        <v>-10</v>
+      </c>
+      <c r="F18" s="66">
+        <v>-6</v>
+      </c>
+      <c r="G18" s="68" t="s">
+        <v>102</v>
+      </c>
+      <c r="H18" s="68"/>
+      <c r="I18" s="68"/>
+      <c r="J18" s="68"/>
+      <c r="K18" s="69" t="s">
+        <v>108</v>
+      </c>
+      <c r="L18" s="69"/>
+      <c r="M18" s="69"/>
+      <c r="N18" s="69"/>
+      <c r="O18" s="69"/>
+      <c r="P18" s="69"/>
+      <c r="Q18" s="69"/>
+      <c r="R18" s="68" t="s">
+        <v>59</v>
+      </c>
+      <c r="S18" s="68"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>6</v>
+      </c>
+      <c r="B19" s="66">
+        <v>1</v>
+      </c>
+      <c r="C19" s="66">
+        <v>5</v>
+      </c>
+      <c r="D19" s="66">
+        <v>5</v>
+      </c>
+      <c r="E19" s="66">
+        <v>-10</v>
+      </c>
+      <c r="F19" s="66">
+        <v>-6</v>
+      </c>
+      <c r="G19" s="68" t="s">
+        <v>102</v>
+      </c>
+      <c r="H19" s="68"/>
+      <c r="I19" s="68"/>
+      <c r="J19" s="68"/>
+      <c r="K19" s="69" t="s">
+        <v>108</v>
+      </c>
+      <c r="L19" s="69"/>
+      <c r="M19" s="69"/>
+      <c r="N19" s="69"/>
+      <c r="O19" s="69"/>
+      <c r="P19" s="69"/>
+      <c r="Q19" s="69"/>
+      <c r="R19" s="68" t="s">
+        <v>59</v>
+      </c>
+      <c r="S19" s="68"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>7</v>
+      </c>
+      <c r="B20" s="66">
+        <v>1</v>
+      </c>
+      <c r="C20" s="66">
+        <v>5</v>
+      </c>
+      <c r="D20" s="66">
+        <v>5</v>
+      </c>
+      <c r="E20" s="66">
+        <v>-10</v>
+      </c>
+      <c r="F20" s="66">
+        <v>-9</v>
+      </c>
+      <c r="G20" s="68" t="s">
+        <v>102</v>
+      </c>
+      <c r="H20" s="68"/>
+      <c r="I20" s="68"/>
+      <c r="J20" s="68"/>
+      <c r="K20" s="69" t="s">
+        <v>108</v>
+      </c>
+      <c r="L20" s="69"/>
+      <c r="M20" s="69"/>
+      <c r="N20" s="69"/>
+      <c r="O20" s="69"/>
+      <c r="P20" s="69"/>
+      <c r="Q20" s="69"/>
+      <c r="R20" s="68" t="s">
+        <v>59</v>
+      </c>
+      <c r="S20" s="68"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>8</v>
+      </c>
+      <c r="B21" s="66">
+        <v>1</v>
+      </c>
+      <c r="C21" s="66">
+        <v>5</v>
+      </c>
+      <c r="D21" s="66">
+        <v>5</v>
+      </c>
+      <c r="E21" s="66">
+        <v>-10</v>
+      </c>
+      <c r="F21" s="66">
+        <v>-5</v>
+      </c>
+      <c r="G21" s="68" t="s">
+        <v>102</v>
+      </c>
+      <c r="H21" s="68"/>
+      <c r="I21" s="68"/>
+      <c r="J21" s="68"/>
+      <c r="K21" s="69" t="s">
+        <v>108</v>
+      </c>
+      <c r="L21" s="69"/>
+      <c r="M21" s="69"/>
+      <c r="N21" s="69"/>
+      <c r="O21" s="69"/>
+      <c r="P21" s="69"/>
+      <c r="Q21" s="69"/>
+      <c r="R21" s="68" t="s">
+        <v>59</v>
+      </c>
+      <c r="S21" s="68"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>9</v>
+      </c>
+      <c r="B22" s="66">
+        <v>1</v>
+      </c>
+      <c r="C22" s="66">
+        <v>5</v>
+      </c>
+      <c r="D22" s="66">
+        <v>5</v>
+      </c>
+      <c r="E22" s="66">
+        <v>-10</v>
+      </c>
+      <c r="F22" s="66">
+        <v>-5</v>
+      </c>
+      <c r="G22" s="68" t="s">
+        <v>102</v>
+      </c>
+      <c r="H22" s="68"/>
+      <c r="I22" s="68"/>
+      <c r="J22" s="68"/>
+      <c r="K22" s="69" t="s">
+        <v>108</v>
+      </c>
+      <c r="L22" s="69"/>
+      <c r="M22" s="69"/>
+      <c r="N22" s="69"/>
+      <c r="O22" s="69"/>
+      <c r="P22" s="69"/>
+      <c r="Q22" s="69"/>
+      <c r="R22" s="68" t="s">
+        <v>59</v>
+      </c>
+      <c r="S22" s="68"/>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>10</v>
+      </c>
+      <c r="B23" s="66">
+        <v>1</v>
+      </c>
+      <c r="C23" s="66">
+        <v>5</v>
+      </c>
+      <c r="D23" s="66">
+        <v>5</v>
+      </c>
+      <c r="E23" s="66">
+        <v>-10</v>
+      </c>
+      <c r="F23" s="66">
+        <v>-8.9990000000000006</v>
+      </c>
+      <c r="G23" s="68" t="s">
+        <v>102</v>
+      </c>
+      <c r="H23" s="68"/>
+      <c r="I23" s="68"/>
+      <c r="J23" s="68"/>
+      <c r="K23" s="69" t="s">
+        <v>108</v>
+      </c>
+      <c r="L23" s="69"/>
+      <c r="M23" s="69"/>
+      <c r="N23" s="69"/>
+      <c r="O23" s="69"/>
+      <c r="P23" s="69"/>
+      <c r="Q23" s="69"/>
+      <c r="R23" s="68" t="s">
+        <v>59</v>
+      </c>
+      <c r="S23" s="68"/>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>11</v>
+      </c>
+      <c r="B24" s="66">
+        <v>1</v>
+      </c>
+      <c r="C24" s="66">
+        <v>5</v>
+      </c>
+      <c r="D24" s="66">
+        <v>5</v>
+      </c>
+      <c r="E24" s="66">
+        <v>-10</v>
+      </c>
+      <c r="F24" s="66">
+        <v>-5.0010000000000003</v>
+      </c>
+      <c r="G24" s="68" t="s">
+        <v>102</v>
+      </c>
+      <c r="H24" s="68"/>
+      <c r="I24" s="68"/>
+      <c r="J24" s="68"/>
+      <c r="K24" s="69" t="s">
+        <v>108</v>
+      </c>
+      <c r="L24" s="69"/>
+      <c r="M24" s="69"/>
+      <c r="N24" s="69"/>
+      <c r="O24" s="69"/>
+      <c r="P24" s="69"/>
+      <c r="Q24" s="69"/>
+      <c r="R24" s="68" t="s">
+        <v>59</v>
+      </c>
+      <c r="S24" s="68"/>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>12</v>
+      </c>
+      <c r="B25" s="66">
+        <v>1</v>
+      </c>
+      <c r="C25" s="66">
+        <v>5</v>
+      </c>
+      <c r="D25" s="66">
+        <v>0</v>
+      </c>
+      <c r="E25" s="66">
+        <v>8</v>
+      </c>
+      <c r="F25" s="66">
+        <v>1</v>
+      </c>
+      <c r="G25" s="68" t="s">
+        <v>102</v>
+      </c>
+      <c r="H25" s="68"/>
+      <c r="I25" s="68"/>
+      <c r="J25" s="68"/>
+      <c r="K25" s="69"/>
+      <c r="L25" s="69"/>
+      <c r="M25" s="69"/>
+      <c r="N25" s="69"/>
+      <c r="O25" s="69"/>
+      <c r="P25" s="69"/>
+      <c r="Q25" s="69"/>
+      <c r="R25" s="68" t="s">
+        <v>114</v>
+      </c>
+      <c r="S25" s="68"/>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>13</v>
+      </c>
+      <c r="B26" s="66">
+        <v>1</v>
+      </c>
+      <c r="C26" s="66">
+        <v>5</v>
+      </c>
+      <c r="D26" s="66">
+        <v>5</v>
+      </c>
+      <c r="E26" s="66">
+        <v>8</v>
+      </c>
+      <c r="F26" s="70" t="s">
+        <v>113</v>
+      </c>
+      <c r="G26" s="68" t="s">
+        <v>102</v>
+      </c>
+      <c r="H26" s="68"/>
+      <c r="I26" s="68"/>
+      <c r="J26" s="68"/>
+      <c r="K26" s="66">
+        <v>-1.0965282417577722</v>
+      </c>
+      <c r="L26" s="66">
+        <v>-2.0149550743927005</v>
+      </c>
+      <c r="M26" s="66">
+        <v>-2.6061068543638726</v>
+      </c>
+      <c r="N26" s="66">
+        <v>-2.7739669347588958</v>
+      </c>
+      <c r="O26" s="68">
+        <v>-2.491270977355259</v>
+      </c>
+      <c r="P26" s="68"/>
+      <c r="Q26" s="68"/>
+      <c r="R26" s="68" t="s">
+        <v>88</v>
+      </c>
+      <c r="S26" s="68"/>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>14</v>
+      </c>
+      <c r="B27" s="66">
+        <v>1</v>
+      </c>
+      <c r="C27" s="66">
+        <v>5</v>
+      </c>
+      <c r="D27" s="66">
+        <v>5</v>
+      </c>
+      <c r="E27" s="66">
+        <v>12</v>
+      </c>
+      <c r="F27" s="70" t="s">
+        <v>112</v>
+      </c>
+      <c r="G27" s="68" t="s">
+        <v>102</v>
+      </c>
+      <c r="H27" s="68"/>
+      <c r="I27" s="68"/>
+      <c r="J27" s="68"/>
+      <c r="K27" s="66">
+        <v>0.89715947029458376</v>
+      </c>
+      <c r="L27" s="66">
+        <v>1.6485996059699282</v>
+      </c>
+      <c r="M27" s="66">
+        <v>2.1322692442145454</v>
+      </c>
+      <c r="N27" s="66">
+        <v>2.2696093103107375</v>
+      </c>
+      <c r="O27" s="68">
+        <v>2.0383126184005804</v>
+      </c>
+      <c r="P27" s="68"/>
+      <c r="Q27" s="68"/>
+      <c r="R27" s="68" t="s">
+        <v>88</v>
+      </c>
+      <c r="S27" s="68"/>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>15</v>
+      </c>
+      <c r="B28" s="66">
+        <v>1</v>
+      </c>
+      <c r="C28" s="66">
+        <v>5</v>
+      </c>
+      <c r="D28" s="66">
+        <v>5</v>
+      </c>
+      <c r="E28" s="66">
+        <v>8</v>
+      </c>
+      <c r="F28" s="66">
+        <v>1</v>
+      </c>
+      <c r="G28" s="68" t="s">
+        <v>111</v>
+      </c>
+      <c r="H28" s="68"/>
+      <c r="I28" s="68"/>
+      <c r="J28" s="68"/>
+      <c r="K28" s="69" t="s">
+        <v>108</v>
+      </c>
+      <c r="L28" s="69"/>
+      <c r="M28" s="69"/>
+      <c r="N28" s="69"/>
+      <c r="O28" s="69"/>
+      <c r="P28" s="69"/>
+      <c r="Q28" s="69"/>
+      <c r="R28" s="68" t="s">
+        <v>89</v>
+      </c>
+      <c r="S28" s="68"/>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>16</v>
+      </c>
+      <c r="B29" s="66">
+        <v>1</v>
+      </c>
+      <c r="C29" s="66">
+        <v>5</v>
+      </c>
+      <c r="D29" s="66">
+        <v>5</v>
+      </c>
+      <c r="E29" s="66">
+        <v>8</v>
+      </c>
+      <c r="F29" s="66">
+        <v>1</v>
+      </c>
+      <c r="G29" s="68" t="s">
+        <v>110</v>
+      </c>
+      <c r="H29" s="68"/>
+      <c r="I29" s="68"/>
+      <c r="J29" s="68"/>
+      <c r="K29" s="69" t="s">
+        <v>108</v>
+      </c>
+      <c r="L29" s="69"/>
+      <c r="M29" s="69"/>
+      <c r="N29" s="69"/>
+      <c r="O29" s="69"/>
+      <c r="P29" s="69"/>
+      <c r="Q29" s="69"/>
+      <c r="R29" s="68" t="s">
+        <v>89</v>
+      </c>
+      <c r="S29" s="68"/>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>17</v>
+      </c>
+      <c r="B30" s="66">
+        <v>1</v>
+      </c>
+      <c r="C30" s="66">
+        <v>5</v>
+      </c>
+      <c r="D30" s="66">
+        <v>5</v>
+      </c>
+      <c r="E30" s="66">
+        <v>8</v>
+      </c>
+      <c r="F30" s="66">
+        <v>1</v>
+      </c>
+      <c r="G30" s="68" t="s">
+        <v>109</v>
+      </c>
+      <c r="H30" s="68"/>
+      <c r="I30" s="68"/>
+      <c r="J30" s="68"/>
+      <c r="K30" s="69" t="s">
+        <v>108</v>
+      </c>
+      <c r="L30" s="69"/>
+      <c r="M30" s="69"/>
+      <c r="N30" s="69"/>
+      <c r="O30" s="69"/>
+      <c r="P30" s="69"/>
+      <c r="Q30" s="69"/>
+      <c r="R30" s="68" t="s">
+        <v>89</v>
+      </c>
+      <c r="S30" s="68"/>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>18</v>
+      </c>
+      <c r="B31" s="67" t="s">
+        <v>106</v>
+      </c>
+      <c r="C31" s="67">
+        <v>10</v>
+      </c>
+      <c r="D31" s="67">
+        <v>1</v>
+      </c>
+      <c r="E31" s="67">
+        <v>8</v>
+      </c>
+      <c r="F31" s="67">
+        <v>1</v>
+      </c>
+      <c r="G31" s="66"/>
+      <c r="H31" s="66"/>
+      <c r="I31" s="66"/>
+      <c r="J31" s="66"/>
+      <c r="K31" s="66"/>
+      <c r="L31" s="66"/>
+      <c r="M31" s="66"/>
+      <c r="N31" s="66"/>
+      <c r="O31" s="66"/>
+      <c r="P31" s="66"/>
+      <c r="Q31" s="66"/>
+      <c r="R31" s="73" t="s">
+        <v>123</v>
+      </c>
+      <c r="S31" s="74"/>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>19</v>
+      </c>
+      <c r="B32" s="67">
+        <v>1</v>
+      </c>
+      <c r="C32" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="D32" s="67">
+        <v>1</v>
+      </c>
+      <c r="E32" s="67">
+        <v>8</v>
+      </c>
+      <c r="F32" s="67">
+        <v>1</v>
+      </c>
+      <c r="G32" s="66"/>
+      <c r="H32" s="66"/>
+      <c r="I32" s="66"/>
+      <c r="J32" s="66"/>
+      <c r="K32" s="66"/>
+      <c r="L32" s="66"/>
+      <c r="M32" s="66"/>
+      <c r="N32" s="66"/>
+      <c r="O32" s="66"/>
+      <c r="P32" s="66"/>
+      <c r="Q32" s="66"/>
+      <c r="R32" s="73" t="s">
+        <v>124</v>
+      </c>
+      <c r="S32" s="74"/>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>20</v>
+      </c>
+      <c r="B33" s="67"/>
+      <c r="C33" s="67"/>
+      <c r="D33" s="67" t="s">
+        <v>107</v>
+      </c>
+      <c r="E33" s="67"/>
+      <c r="F33" s="67"/>
+      <c r="G33" s="66"/>
+      <c r="H33" s="66"/>
+      <c r="I33" s="66"/>
+      <c r="J33" s="66"/>
+      <c r="K33" s="66"/>
+      <c r="L33" s="66"/>
+      <c r="M33" s="66"/>
+      <c r="N33" s="66"/>
+      <c r="O33" s="66"/>
+      <c r="P33" s="66"/>
+      <c r="Q33" s="66"/>
+      <c r="R33" s="73" t="s">
+        <v>125</v>
+      </c>
+      <c r="S33" s="74"/>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>21</v>
+      </c>
+      <c r="B34" s="67"/>
+      <c r="C34" s="67"/>
+      <c r="D34" s="67">
+        <v>5</v>
+      </c>
+      <c r="E34" s="67" t="s">
+        <v>106</v>
+      </c>
+      <c r="F34" s="67"/>
+      <c r="G34" s="66"/>
+      <c r="H34" s="66"/>
+      <c r="I34" s="66"/>
+      <c r="J34" s="66"/>
+      <c r="K34" s="66"/>
+      <c r="L34" s="66"/>
+      <c r="M34" s="66"/>
+      <c r="N34" s="66"/>
+      <c r="O34" s="66"/>
+      <c r="P34" s="66"/>
+      <c r="Q34" s="66"/>
+      <c r="R34" s="73" t="s">
+        <v>126</v>
+      </c>
+      <c r="S34" s="74"/>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>22</v>
+      </c>
+      <c r="B35" s="67"/>
+      <c r="C35" s="67"/>
+      <c r="D35" s="67">
+        <v>5</v>
+      </c>
+      <c r="E35" s="67">
+        <v>8</v>
+      </c>
+      <c r="F35" s="67" t="s">
+        <v>106</v>
+      </c>
+      <c r="G35" s="66"/>
+      <c r="H35" s="66"/>
+      <c r="I35" s="66"/>
+      <c r="J35" s="66"/>
+      <c r="K35" s="66"/>
+      <c r="L35" s="66"/>
+      <c r="M35" s="66"/>
+      <c r="N35" s="66"/>
+      <c r="O35" s="66"/>
+      <c r="P35" s="66"/>
+      <c r="Q35" s="66"/>
+      <c r="R35" s="73" t="s">
+        <v>127</v>
+      </c>
+      <c r="S35" s="74"/>
+    </row>
+  </sheetData>
+  <mergeCells count="78">
+    <mergeCell ref="R32:S32"/>
+    <mergeCell ref="R33:S33"/>
+    <mergeCell ref="R34:S34"/>
+    <mergeCell ref="R35:S35"/>
+    <mergeCell ref="G30:J30"/>
+    <mergeCell ref="K30:Q30"/>
+    <mergeCell ref="R30:S30"/>
+    <mergeCell ref="G28:J28"/>
+    <mergeCell ref="K28:Q28"/>
+    <mergeCell ref="R31:S31"/>
+    <mergeCell ref="G26:J26"/>
+    <mergeCell ref="R26:S26"/>
+    <mergeCell ref="R28:S28"/>
+    <mergeCell ref="G29:J29"/>
+    <mergeCell ref="K29:Q29"/>
+    <mergeCell ref="R29:S29"/>
+    <mergeCell ref="G24:J24"/>
+    <mergeCell ref="K24:Q24"/>
+    <mergeCell ref="R24:S24"/>
+    <mergeCell ref="O26:Q26"/>
+    <mergeCell ref="G27:J27"/>
+    <mergeCell ref="O27:Q27"/>
+    <mergeCell ref="R27:S27"/>
+    <mergeCell ref="G25:J25"/>
+    <mergeCell ref="K25:Q25"/>
+    <mergeCell ref="R25:S25"/>
+    <mergeCell ref="K13:Q13"/>
+    <mergeCell ref="K15:Q15"/>
+    <mergeCell ref="R15:S15"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="K23:Q23"/>
+    <mergeCell ref="R23:S23"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="G17:J17"/>
+    <mergeCell ref="K17:Q17"/>
+    <mergeCell ref="R17:S17"/>
+    <mergeCell ref="G18:J18"/>
+    <mergeCell ref="K18:Q18"/>
+    <mergeCell ref="R18:S18"/>
+    <mergeCell ref="R14:S14"/>
+    <mergeCell ref="G15:J15"/>
+    <mergeCell ref="R19:S19"/>
+    <mergeCell ref="G20:J20"/>
+    <mergeCell ref="K20:Q20"/>
+    <mergeCell ref="R20:S20"/>
+    <mergeCell ref="G21:J21"/>
+    <mergeCell ref="K21:Q21"/>
+    <mergeCell ref="R21:S21"/>
+    <mergeCell ref="G16:J16"/>
+    <mergeCell ref="K16:Q16"/>
+    <mergeCell ref="R16:S16"/>
+    <mergeCell ref="K14:Q14"/>
+    <mergeCell ref="R13:S13"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="K22:Q22"/>
+    <mergeCell ref="R22:S22"/>
+    <mergeCell ref="G19:J19"/>
+    <mergeCell ref="K19:Q19"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="H2:L2"/>
+    <mergeCell ref="H3:L3"/>
+    <mergeCell ref="H4:L4"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B6:F6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/тест кейсы.xlsx
+++ b/тест кейсы.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90C1139E-AE89-4B15-9007-4F6AE170D2B9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBEE7F27-07AE-43E1-AAAF-94982ECF3905}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="123">
   <si>
     <t>b</t>
   </si>
@@ -358,9 +358,6 @@
     <t>C:\Program Files\test*.txt</t>
   </si>
   <si>
-    <t>C:\Program Files\</t>
-  </si>
-  <si>
     <t>-4.999</t>
   </si>
   <si>
@@ -394,19 +391,7 @@
     <t>Передан пустой массив данных</t>
   </si>
   <si>
-    <t>x1 не число</t>
-  </si>
-  <si>
-    <t>х2 не число</t>
-  </si>
-  <si>
-    <t>n не число</t>
-  </si>
-  <si>
-    <t>b не число</t>
-  </si>
-  <si>
-    <t>c не число</t>
+    <t>C:\Program Files</t>
   </si>
 </sst>
 </file>
@@ -466,7 +451,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -617,37 +602,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -728,84 +687,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -814,21 +695,93 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1283,18 +1236,18 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="40" t="s">
+      <c r="A10" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="40"/>
-      <c r="C10" s="40"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="45"/>
     </row>
     <row r="11" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="41" t="s">
+      <c r="A11" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="41"/>
-      <c r="C11" s="41"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="46"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -1337,7 +1290,7 @@
       <c r="B16" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="47" t="s">
+      <c r="C16" s="52" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1346,7 +1299,7 @@
       <c r="B17" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="48"/>
+      <c r="C17" s="53"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
@@ -1362,7 +1315,7 @@
       <c r="B19" s="16">
         <v>10</v>
       </c>
-      <c r="C19" s="45" t="s">
+      <c r="C19" s="50" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1373,7 +1326,7 @@
       <c r="B20" s="17">
         <v>0</v>
       </c>
-      <c r="C20" s="46"/>
+      <c r="C20" s="51"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
@@ -1387,7 +1340,7 @@
       <c r="B22" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="43" t="s">
+      <c r="C22" s="48" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1396,7 +1349,7 @@
       <c r="B23" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="44"/>
+      <c r="C23" s="49"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="18" t="s">
@@ -1410,7 +1363,7 @@
       <c r="B25" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="47" t="s">
+      <c r="C25" s="52" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1419,7 +1372,7 @@
       <c r="B26" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="48"/>
+      <c r="C26" s="53"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
@@ -1433,7 +1386,7 @@
       <c r="B28" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C28" s="45" t="s">
+      <c r="C28" s="50" t="s">
         <v>30</v>
       </c>
       <c r="E28" t="s">
@@ -1445,7 +1398,7 @@
       <c r="B29" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="C29" s="46"/>
+      <c r="C29" s="51"/>
       <c r="E29" t="s">
         <v>50</v>
       </c>
@@ -1465,7 +1418,7 @@
       <c r="B31" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C31" s="45" t="s">
+      <c r="C31" s="50" t="s">
         <v>30</v>
       </c>
       <c r="E31" t="s">
@@ -1477,7 +1430,7 @@
       <c r="B32" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C32" s="46"/>
+      <c r="C32" s="51"/>
       <c r="E32" t="s">
         <v>53</v>
       </c>
@@ -1494,7 +1447,7 @@
       <c r="B34" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C34" s="45" t="s">
+      <c r="C34" s="50" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1503,14 +1456,14 @@
       <c r="B35" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="C35" s="46"/>
+      <c r="C35" s="51"/>
     </row>
     <row r="36" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="42" t="s">
+      <c r="A36" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="B36" s="42"/>
-      <c r="C36" s="42"/>
+      <c r="B36" s="47"/>
+      <c r="C36" s="47"/>
     </row>
     <row r="37" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
@@ -1524,7 +1477,7 @@
       <c r="B38" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C38" s="43" t="s">
+      <c r="C38" s="48" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1533,7 +1486,7 @@
       <c r="B39" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="C39" s="44"/>
+      <c r="C39" s="49"/>
     </row>
     <row r="40" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
@@ -1547,7 +1500,7 @@
       <c r="B41" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C41" s="43" t="s">
+      <c r="C41" s="48" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1556,7 +1509,7 @@
       <c r="B42" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="C42" s="44"/>
+      <c r="C42" s="49"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
@@ -1692,12 +1645,12 @@
       </c>
     </row>
     <row r="5" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="53" t="s">
+      <c r="A5" s="64" t="s">
         <v>65</v>
       </c>
-      <c r="B5" s="53"/>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
       <c r="G5" s="37" t="s">
         <v>64</v>
       </c>
@@ -1717,10 +1670,10 @@
       <c r="B7" s="29">
         <v>1</v>
       </c>
-      <c r="C7" s="55">
+      <c r="C7" s="66">
         <v>-1.3715301244642522</v>
       </c>
-      <c r="D7" s="56"/>
+      <c r="D7" s="55"/>
       <c r="J7">
         <v>1</v>
       </c>
@@ -1744,10 +1697,10 @@
       <c r="B8" s="28">
         <v>5</v>
       </c>
-      <c r="C8" s="57">
+      <c r="C8" s="67">
         <v>-2.3853745661267767</v>
       </c>
-      <c r="D8" s="58"/>
+      <c r="D8" s="57"/>
       <c r="J8">
         <f>(100/($B$10*$B$10-100))*SIN((4*J$7)/SQRT($B$11*$B$11 + 14 * $B$11 + 45))</f>
         <v>-1.3715301244642522</v>
@@ -1776,10 +1729,10 @@
       <c r="B9" s="28">
         <v>5</v>
       </c>
-      <c r="C9" s="57">
+      <c r="C9" s="67">
         <v>-2.777129623674452</v>
       </c>
-      <c r="D9" s="58"/>
+      <c r="D9" s="57"/>
     </row>
     <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
@@ -1788,10 +1741,10 @@
       <c r="B10" s="28">
         <v>8</v>
       </c>
-      <c r="C10" s="57">
+      <c r="C10" s="67">
         <v>-2.4446282555304797</v>
       </c>
-      <c r="D10" s="58"/>
+      <c r="D10" s="57"/>
     </row>
     <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
@@ -1800,10 +1753,10 @@
       <c r="B11" s="27">
         <v>1</v>
       </c>
-      <c r="C11" s="59">
+      <c r="C11" s="68">
         <v>-1.4745845460417426</v>
       </c>
-      <c r="D11" s="60"/>
+      <c r="D11" s="59"/>
     </row>
     <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="36" t="s">
@@ -1819,10 +1772,10 @@
       <c r="B13" s="35">
         <v>1</v>
       </c>
-      <c r="C13" s="49" t="s">
+      <c r="C13" s="60" t="s">
         <v>62</v>
       </c>
-      <c r="D13" s="50"/>
+      <c r="D13" s="61"/>
     </row>
     <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
@@ -1831,8 +1784,8 @@
       <c r="B14" s="31">
         <v>3</v>
       </c>
-      <c r="C14" s="51"/>
-      <c r="D14" s="45"/>
+      <c r="C14" s="62"/>
+      <c r="D14" s="50"/>
     </row>
     <row r="15" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
@@ -1841,8 +1794,8 @@
       <c r="B15" s="31">
         <v>3</v>
       </c>
-      <c r="C15" s="51"/>
-      <c r="D15" s="45"/>
+      <c r="C15" s="62"/>
+      <c r="D15" s="50"/>
     </row>
     <row r="16" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
@@ -1851,8 +1804,8 @@
       <c r="B16" s="31">
         <v>8</v>
       </c>
-      <c r="C16" s="51"/>
-      <c r="D16" s="45"/>
+      <c r="C16" s="62"/>
+      <c r="D16" s="50"/>
     </row>
     <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
@@ -1861,8 +1814,8 @@
       <c r="B17" s="34">
         <v>1</v>
       </c>
-      <c r="C17" s="52"/>
-      <c r="D17" s="46"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="51"/>
     </row>
     <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="33" t="s">
@@ -1876,10 +1829,10 @@
       <c r="B19" s="29">
         <v>1</v>
       </c>
-      <c r="C19" s="49" t="s">
+      <c r="C19" s="60" t="s">
         <v>61</v>
       </c>
-      <c r="D19" s="50"/>
+      <c r="D19" s="61"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
@@ -1888,8 +1841,8 @@
       <c r="B20" s="28">
         <v>10</v>
       </c>
-      <c r="C20" s="51"/>
-      <c r="D20" s="45"/>
+      <c r="C20" s="62"/>
+      <c r="D20" s="50"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
@@ -1898,8 +1851,8 @@
       <c r="B21" s="28">
         <v>10</v>
       </c>
-      <c r="C21" s="51"/>
-      <c r="D21" s="45"/>
+      <c r="C21" s="62"/>
+      <c r="D21" s="50"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
@@ -1908,8 +1861,8 @@
       <c r="B22" s="28">
         <v>10</v>
       </c>
-      <c r="C22" s="51"/>
-      <c r="D22" s="45"/>
+      <c r="C22" s="62"/>
+      <c r="D22" s="50"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
@@ -1918,8 +1871,8 @@
       <c r="B23" s="27">
         <v>1</v>
       </c>
-      <c r="C23" s="52"/>
-      <c r="D23" s="46"/>
+      <c r="C23" s="63"/>
+      <c r="D23" s="51"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="33" t="s">
@@ -1933,10 +1886,10 @@
       <c r="B25" s="29">
         <v>1</v>
       </c>
-      <c r="C25" s="49" t="s">
+      <c r="C25" s="60" t="s">
         <v>60</v>
       </c>
-      <c r="D25" s="50"/>
+      <c r="D25" s="61"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
@@ -1945,8 +1898,8 @@
       <c r="B26" s="28">
         <v>10</v>
       </c>
-      <c r="C26" s="51"/>
-      <c r="D26" s="45"/>
+      <c r="C26" s="62"/>
+      <c r="D26" s="50"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
@@ -1955,8 +1908,8 @@
       <c r="B27" s="28">
         <v>10</v>
       </c>
-      <c r="C27" s="51"/>
-      <c r="D27" s="45"/>
+      <c r="C27" s="62"/>
+      <c r="D27" s="50"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
@@ -1965,8 +1918,8 @@
       <c r="B28" s="28">
         <v>-10</v>
       </c>
-      <c r="C28" s="51"/>
-      <c r="D28" s="45"/>
+      <c r="C28" s="62"/>
+      <c r="D28" s="50"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
@@ -1975,8 +1928,8 @@
       <c r="B29" s="27">
         <v>1</v>
       </c>
-      <c r="C29" s="52"/>
-      <c r="D29" s="46"/>
+      <c r="C29" s="63"/>
+      <c r="D29" s="51"/>
     </row>
     <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="33" t="s">
@@ -1990,10 +1943,10 @@
       <c r="B31" s="29">
         <v>1</v>
       </c>
-      <c r="C31" s="49" t="s">
+      <c r="C31" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="D31" s="50"/>
+      <c r="D31" s="61"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
@@ -2002,8 +1955,8 @@
       <c r="B32" s="28">
         <v>10</v>
       </c>
-      <c r="C32" s="51"/>
-      <c r="D32" s="45"/>
+      <c r="C32" s="62"/>
+      <c r="D32" s="50"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
@@ -2012,8 +1965,8 @@
       <c r="B33" s="28">
         <v>10</v>
       </c>
-      <c r="C33" s="51"/>
-      <c r="D33" s="45"/>
+      <c r="C33" s="62"/>
+      <c r="D33" s="50"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
@@ -2022,8 +1975,8 @@
       <c r="B34" s="28">
         <v>8</v>
       </c>
-      <c r="C34" s="51"/>
-      <c r="D34" s="45"/>
+      <c r="C34" s="62"/>
+      <c r="D34" s="50"/>
     </row>
     <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
@@ -2032,8 +1985,8 @@
       <c r="B35" s="27">
         <v>-6</v>
       </c>
-      <c r="C35" s="52"/>
-      <c r="D35" s="46"/>
+      <c r="C35" s="63"/>
+      <c r="D35" s="51"/>
     </row>
     <row r="36" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="33" t="s">
@@ -2047,10 +2000,10 @@
       <c r="B37" s="29">
         <v>1</v>
       </c>
-      <c r="C37" s="49" t="s">
+      <c r="C37" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="D37" s="50"/>
+      <c r="D37" s="61"/>
     </row>
     <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
@@ -2059,8 +2012,8 @@
       <c r="B38" s="28">
         <v>10</v>
       </c>
-      <c r="C38" s="51"/>
-      <c r="D38" s="45"/>
+      <c r="C38" s="62"/>
+      <c r="D38" s="50"/>
     </row>
     <row r="39" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
@@ -2069,8 +2022,8 @@
       <c r="B39" s="28">
         <v>10</v>
       </c>
-      <c r="C39" s="51"/>
-      <c r="D39" s="45"/>
+      <c r="C39" s="62"/>
+      <c r="D39" s="50"/>
     </row>
     <row r="40" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="10" t="s">
@@ -2079,8 +2032,8 @@
       <c r="B40" s="28">
         <v>8</v>
       </c>
-      <c r="C40" s="51"/>
-      <c r="D40" s="45"/>
+      <c r="C40" s="62"/>
+      <c r="D40" s="50"/>
     </row>
     <row r="41" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
@@ -2089,8 +2042,8 @@
       <c r="B41" s="27">
         <v>-9</v>
       </c>
-      <c r="C41" s="52"/>
-      <c r="D41" s="46"/>
+      <c r="C41" s="63"/>
+      <c r="D41" s="51"/>
     </row>
     <row r="42" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="33" t="s">
@@ -2104,10 +2057,10 @@
       <c r="B43" s="29">
         <v>1</v>
       </c>
-      <c r="C43" s="49" t="s">
+      <c r="C43" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="D43" s="50"/>
+      <c r="D43" s="61"/>
     </row>
     <row r="44" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="10" t="s">
@@ -2116,8 +2069,8 @@
       <c r="B44" s="28">
         <v>10</v>
       </c>
-      <c r="C44" s="51"/>
-      <c r="D44" s="45"/>
+      <c r="C44" s="62"/>
+      <c r="D44" s="50"/>
     </row>
     <row r="45" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="10" t="s">
@@ -2126,8 +2079,8 @@
       <c r="B45" s="28">
         <v>1</v>
       </c>
-      <c r="C45" s="51"/>
-      <c r="D45" s="45"/>
+      <c r="C45" s="62"/>
+      <c r="D45" s="50"/>
     </row>
     <row r="46" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="10" t="s">
@@ -2136,8 +2089,8 @@
       <c r="B46" s="28">
         <v>8</v>
       </c>
-      <c r="C46" s="51"/>
-      <c r="D46" s="45"/>
+      <c r="C46" s="62"/>
+      <c r="D46" s="50"/>
     </row>
     <row r="47" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
@@ -2146,16 +2099,16 @@
       <c r="B47" s="27">
         <v>-5</v>
       </c>
-      <c r="C47" s="52"/>
-      <c r="D47" s="46"/>
+      <c r="C47" s="63"/>
+      <c r="D47" s="51"/>
     </row>
     <row r="48" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="54" t="s">
+      <c r="A48" s="65" t="s">
         <v>58</v>
       </c>
-      <c r="B48" s="53"/>
-      <c r="C48" s="53"/>
-      <c r="D48" s="53"/>
+      <c r="B48" s="64"/>
+      <c r="C48" s="64"/>
+      <c r="D48" s="64"/>
     </row>
     <row r="49" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="32" t="s">
@@ -2171,10 +2124,10 @@
       <c r="B50" s="29">
         <v>2</v>
       </c>
-      <c r="C50" s="49" t="s">
+      <c r="C50" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="D50" s="50"/>
+      <c r="D50" s="61"/>
     </row>
     <row r="51" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="10" t="s">
@@ -2183,8 +2136,8 @@
       <c r="B51" s="28">
         <v>5</v>
       </c>
-      <c r="C51" s="51"/>
-      <c r="D51" s="45"/>
+      <c r="C51" s="62"/>
+      <c r="D51" s="50"/>
     </row>
     <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="10" t="s">
@@ -2193,8 +2146,8 @@
       <c r="B52" s="28">
         <v>1</v>
       </c>
-      <c r="C52" s="51"/>
-      <c r="D52" s="45"/>
+      <c r="C52" s="62"/>
+      <c r="D52" s="50"/>
     </row>
     <row r="53" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="10" t="s">
@@ -2203,8 +2156,8 @@
       <c r="B53" s="28">
         <v>8</v>
       </c>
-      <c r="C53" s="51"/>
-      <c r="D53" s="45"/>
+      <c r="C53" s="62"/>
+      <c r="D53" s="50"/>
     </row>
     <row r="54" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="11" t="s">
@@ -2213,8 +2166,8 @@
       <c r="B54" s="27">
         <v>-8.9990000000000006</v>
       </c>
-      <c r="C54" s="52"/>
-      <c r="D54" s="46"/>
+      <c r="C54" s="63"/>
+      <c r="D54" s="51"/>
     </row>
     <row r="55" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="32" t="s">
@@ -2230,10 +2183,10 @@
       <c r="B56" s="29">
         <v>2</v>
       </c>
-      <c r="C56" s="49" t="s">
+      <c r="C56" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="D56" s="50"/>
+      <c r="D56" s="61"/>
     </row>
     <row r="57" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="10" t="s">
@@ -2242,8 +2195,8 @@
       <c r="B57" s="28">
         <v>5</v>
       </c>
-      <c r="C57" s="51"/>
-      <c r="D57" s="45"/>
+      <c r="C57" s="62"/>
+      <c r="D57" s="50"/>
     </row>
     <row r="58" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="10" t="s">
@@ -2252,8 +2205,8 @@
       <c r="B58" s="28">
         <v>1</v>
       </c>
-      <c r="C58" s="51"/>
-      <c r="D58" s="45"/>
+      <c r="C58" s="62"/>
+      <c r="D58" s="50"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="10" t="s">
@@ -2262,8 +2215,8 @@
       <c r="B59" s="28">
         <v>8</v>
       </c>
-      <c r="C59" s="51"/>
-      <c r="D59" s="45"/>
+      <c r="C59" s="62"/>
+      <c r="D59" s="50"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="11" t="s">
@@ -2272,8 +2225,8 @@
       <c r="B60" s="27">
         <v>-5.0010000000000003</v>
       </c>
-      <c r="C60" s="52"/>
-      <c r="D60" s="46"/>
+      <c r="C60" s="63"/>
+      <c r="D60" s="51"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="32" t="s">
@@ -2289,10 +2242,10 @@
       <c r="B62" s="29">
         <v>2</v>
       </c>
-      <c r="C62" s="49" t="s">
+      <c r="C62" s="60" t="s">
         <v>74</v>
       </c>
-      <c r="D62" s="50"/>
+      <c r="D62" s="61"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="10" t="s">
@@ -2301,8 +2254,8 @@
       <c r="B63" s="28">
         <v>5</v>
       </c>
-      <c r="C63" s="51"/>
-      <c r="D63" s="45"/>
+      <c r="C63" s="62"/>
+      <c r="D63" s="50"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="10" t="s">
@@ -2311,8 +2264,8 @@
       <c r="B64" s="28">
         <v>0</v>
       </c>
-      <c r="C64" s="51"/>
-      <c r="D64" s="45"/>
+      <c r="C64" s="62"/>
+      <c r="D64" s="50"/>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" s="10" t="s">
@@ -2321,8 +2274,8 @@
       <c r="B65" s="28">
         <v>8</v>
       </c>
-      <c r="C65" s="51"/>
-      <c r="D65" s="45"/>
+      <c r="C65" s="62"/>
+      <c r="D65" s="50"/>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" s="11" t="s">
@@ -2331,8 +2284,8 @@
       <c r="B66" s="27">
         <v>1</v>
       </c>
-      <c r="C66" s="52"/>
-      <c r="D66" s="46"/>
+      <c r="C66" s="63"/>
+      <c r="D66" s="51"/>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" s="32" t="s">
@@ -2348,11 +2301,11 @@
       <c r="B68" s="29">
         <v>1</v>
       </c>
-      <c r="C68" s="61">
+      <c r="C68" s="54">
         <f>(100/($B$71*$B$71-100))*SIN((4*J$7)/SQRT($B$72*$B$72 + 14 * $B$72 + 45))</f>
         <v>-1.0965282417577722</v>
       </c>
-      <c r="D68" s="56"/>
+      <c r="D68" s="55"/>
       <c r="J68">
         <v>1</v>
       </c>
@@ -2376,11 +2329,11 @@
       <c r="B69" s="28">
         <v>5</v>
       </c>
-      <c r="C69" s="62">
+      <c r="C69" s="56">
         <f>(100/($B$71*$B$71-100))*SIN((4*K$7)/SQRT($B$72*$B$72 + 14 * $B$72 + 45))</f>
         <v>-2.0149550743927005</v>
       </c>
-      <c r="D69" s="58"/>
+      <c r="D69" s="57"/>
       <c r="J69">
         <f>(100/($B$71*$B$71-100))*SIN((4*J$7)/SQRT($B$72*$B$72 + 14 * $B$72 + 45))</f>
         <v>-1.0965282417577722</v>
@@ -2409,11 +2362,11 @@
       <c r="B70" s="28">
         <v>5</v>
       </c>
-      <c r="C70" s="62">
+      <c r="C70" s="56">
         <f>(100/($B$71*$B$71-100))*SIN((4*L$7)/SQRT($B$72*$B$72 + 14 * $B$72 + 45))</f>
         <v>-2.6061068543638726</v>
       </c>
-      <c r="D70" s="58"/>
+      <c r="D70" s="57"/>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" s="10" t="s">
@@ -2422,11 +2375,11 @@
       <c r="B71" s="28">
         <v>8</v>
       </c>
-      <c r="C71" s="62">
+      <c r="C71" s="56">
         <f>(100/($B$71*$B$71-100))*SIN((4*M$7)/SQRT($B$72*$B$72 + 14 * $B$72 + 45))</f>
         <v>-2.7739669347588958</v>
       </c>
-      <c r="D71" s="58"/>
+      <c r="D71" s="57"/>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" s="11" t="s">
@@ -2435,11 +2388,11 @@
       <c r="B72" s="27">
         <v>-9.0009999999999994</v>
       </c>
-      <c r="C72" s="63">
+      <c r="C72" s="58">
         <f>(100/($B$71*$B$71-100))*SIN((4*N$7)/SQRT($B$72*$B$72 + 14 * $B$72 + 45))</f>
         <v>-2.491270977355259</v>
       </c>
-      <c r="D72" s="60"/>
+      <c r="D72" s="59"/>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" s="32" t="s">
@@ -2455,11 +2408,11 @@
       <c r="B74" s="29">
         <v>1</v>
       </c>
-      <c r="C74" s="61">
+      <c r="C74" s="54">
         <f>(100/($B$77*$B$77-100))*SIN((4*J$7)/SQRT($B$78*$B$78 + 14 * $B$78 + 45))</f>
         <v>0.89715947029458376</v>
       </c>
-      <c r="D74" s="56"/>
+      <c r="D74" s="55"/>
       <c r="J74">
         <v>1</v>
       </c>
@@ -2483,11 +2436,11 @@
       <c r="B75" s="28">
         <v>5</v>
       </c>
-      <c r="C75" s="62">
+      <c r="C75" s="56">
         <f>(100/($B$77*$B$77-100))*SIN((4*K$7)/SQRT($B$78*$B$78 + 14 * $B$78 + 45))</f>
         <v>1.6485996059699282</v>
       </c>
-      <c r="D75" s="58"/>
+      <c r="D75" s="57"/>
       <c r="J75">
         <f>(100/($B$77*$B$77-100))*SIN((4*J$7)/SQRT($B$78*$B$78 + 14 * $B$78 + 45))</f>
         <v>0.89715947029458376</v>
@@ -2516,11 +2469,11 @@
       <c r="B76" s="28">
         <v>5</v>
       </c>
-      <c r="C76" s="62">
+      <c r="C76" s="56">
         <f>(100/($B$77*$B$77-100))*SIN((4*L$7)/SQRT($B$78*$B$78 + 14 * $B$78 + 45))</f>
         <v>2.1322692442145454</v>
       </c>
-      <c r="D76" s="58"/>
+      <c r="D76" s="57"/>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" s="10" t="s">
@@ -2529,11 +2482,11 @@
       <c r="B77" s="28">
         <v>12</v>
       </c>
-      <c r="C77" s="62">
+      <c r="C77" s="56">
         <f>(100/($B$77*$B$77-100))*SIN((4*M$7)/SQRT($B$78*$B$78 + 14 * $B$78 + 45))</f>
         <v>2.2696093103107375</v>
       </c>
-      <c r="D77" s="58"/>
+      <c r="D77" s="57"/>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" s="11" t="s">
@@ -2542,24 +2495,14 @@
       <c r="B78" s="27">
         <v>-4.9989999999999997</v>
       </c>
-      <c r="C78" s="63">
+      <c r="C78" s="58">
         <f>(100/($B$77*$B$77-100))*SIN((4*N$7)/SQRT($B$78*$B$78 + 14 * $B$78 + 45))</f>
         <v>2.0383126184005804</v>
       </c>
-      <c r="D78" s="60"/>
+      <c r="D78" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="C78:D78"/>
     <mergeCell ref="C62:D66"/>
     <mergeCell ref="C50:D54"/>
     <mergeCell ref="C56:D60"/>
@@ -2576,6 +2519,16 @@
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C19:D23"/>
     <mergeCell ref="C31:D35"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="C72:D72"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2655,7 +2608,7 @@
       <c r="B12" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C12" s="64" t="s">
+      <c r="C12" s="69" t="s">
         <v>88</v>
       </c>
     </row>
@@ -2666,7 +2619,7 @@
       <c r="B13" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="C13" s="65"/>
+      <c r="C13" s="70"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="33" t="s">
@@ -2680,7 +2633,7 @@
       <c r="B15" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C15" s="64" t="s">
+      <c r="C15" s="69" t="s">
         <v>89</v>
       </c>
     </row>
@@ -2691,7 +2644,7 @@
       <c r="B16" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="C16" s="65"/>
+      <c r="C16" s="70"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="33" t="s">
@@ -2705,7 +2658,7 @@
       <c r="B18" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="C18" s="64" t="s">
+      <c r="C18" s="69" t="s">
         <v>104</v>
       </c>
     </row>
@@ -2716,7 +2669,7 @@
       <c r="B19" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="C19" s="65"/>
+      <c r="C19" s="70"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="33" t="s">
@@ -2730,7 +2683,7 @@
       <c r="B21" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C21" s="64" t="s">
+      <c r="C21" s="69" t="s">
         <v>89</v>
       </c>
     </row>
@@ -2741,7 +2694,7 @@
       <c r="B22" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="C22" s="65"/>
+      <c r="C22" s="70"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="33" t="s">
@@ -2755,7 +2708,7 @@
       <c r="B24" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="C24" s="64" t="s">
+      <c r="C24" s="69" t="s">
         <v>89</v>
       </c>
     </row>
@@ -2766,7 +2719,7 @@
       <c r="B25" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="C25" s="65"/>
+      <c r="C25" s="70"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="33" t="s">
@@ -2780,7 +2733,7 @@
       <c r="B27" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C27" s="64" t="s">
+      <c r="C27" s="69" t="s">
         <v>89</v>
       </c>
     </row>
@@ -2791,7 +2744,7 @@
       <c r="B28" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="C28" s="65"/>
+      <c r="C28" s="70"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="33" t="s">
@@ -2805,7 +2758,7 @@
       <c r="B30" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="C30" s="64" t="s">
+      <c r="C30" s="69" t="s">
         <v>89</v>
       </c>
     </row>
@@ -2816,7 +2769,7 @@
       <c r="B31" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="C31" s="65"/>
+      <c r="C31" s="70"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="33" t="s">
@@ -2830,7 +2783,7 @@
       <c r="B33" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C33" s="64" t="s">
+      <c r="C33" s="69" t="s">
         <v>89</v>
       </c>
     </row>
@@ -2841,7 +2794,7 @@
       <c r="B34" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="C34" s="65"/>
+      <c r="C34" s="70"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="33" t="s">
@@ -2855,7 +2808,7 @@
       <c r="B36" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C36" s="64" t="s">
+      <c r="C36" s="69" t="s">
         <v>89</v>
       </c>
     </row>
@@ -2866,7 +2819,7 @@
       <c r="B37" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="C37" s="65"/>
+      <c r="C37" s="70"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="33" t="s">
@@ -2880,7 +2833,7 @@
       <c r="B39" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="C39" s="64" t="s">
+      <c r="C39" s="69" t="s">
         <v>89</v>
       </c>
     </row>
@@ -2891,7 +2844,7 @@
       <c r="B40" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="C40" s="65"/>
+      <c r="C40" s="70"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="33" t="s">
@@ -2905,7 +2858,7 @@
       <c r="B42" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C42" s="64" t="s">
+      <c r="C42" s="69" t="s">
         <v>89</v>
       </c>
     </row>
@@ -2916,7 +2869,7 @@
       <c r="B43" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="C43" s="65"/>
+      <c r="C43" s="70"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="33"/>
@@ -2924,12 +2877,12 @@
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="3"/>
-      <c r="C45" s="64"/>
+      <c r="C45" s="69"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="5"/>
       <c r="B46" s="8"/>
-      <c r="C46" s="65"/>
+      <c r="C46" s="70"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="33"/>
@@ -2937,21 +2890,15 @@
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" s="3"/>
-      <c r="C48" s="64"/>
+      <c r="C48" s="69"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="5"/>
       <c r="B49" s="8"/>
-      <c r="C49" s="65"/>
+      <c r="C49" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C24:C25"/>
     <mergeCell ref="C48:C49"/>
     <mergeCell ref="C30:C31"/>
     <mergeCell ref="C33:C34"/>
@@ -2959,6 +2906,12 @@
     <mergeCell ref="C39:C40"/>
     <mergeCell ref="C42:C43"/>
     <mergeCell ref="C45:C46"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C24:C25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2966,10 +2919,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3521AD8-2C74-436D-8B7D-3E8027727BCA}">
-  <dimension ref="A1:T35"/>
+  <dimension ref="A1:T33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+      <selection activeCell="K13" sqref="K13:Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2979,1060 +2932,982 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B1" s="68" t="s">
+      <c r="B1" s="71" t="s">
         <v>73</v>
       </c>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="H1" s="68" t="s">
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="H1" s="71" t="s">
         <v>72</v>
       </c>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B2" s="68" t="s">
+      <c r="B2" s="71" t="s">
         <v>71</v>
       </c>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="H2" s="68" t="s">
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="H2" s="71" t="s">
         <v>70</v>
       </c>
-      <c r="I2" s="68"/>
-      <c r="J2" s="68"/>
-      <c r="K2" s="68"/>
-      <c r="L2" s="68"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="71"/>
+      <c r="L2" s="71"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B3" s="68" t="s">
+      <c r="B3" s="71" t="s">
         <v>69</v>
       </c>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="H3" s="68" t="s">
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="H3" s="71" t="s">
         <v>68</v>
       </c>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="68"/>
-      <c r="L3" s="68"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="71"/>
+      <c r="L3" s="71"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B4" s="68" t="s">
+      <c r="B4" s="71" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="H4" s="68" t="s">
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="H4" s="71" t="s">
         <v>66</v>
       </c>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68"/>
-      <c r="K4" s="68"/>
-      <c r="L4" s="68"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="71"/>
+      <c r="K4" s="71"/>
+      <c r="L4" s="71"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B5" s="68" t="s">
+      <c r="B5" s="71" t="s">
         <v>64</v>
       </c>
-      <c r="C5" s="68"/>
-      <c r="D5" s="68"/>
-      <c r="E5" s="68"/>
-      <c r="F5" s="68"/>
-      <c r="H5" s="68" t="s">
+      <c r="C5" s="71"/>
+      <c r="D5" s="71"/>
+      <c r="E5" s="71"/>
+      <c r="F5" s="71"/>
+      <c r="H5" s="71" t="s">
         <v>63</v>
       </c>
-      <c r="I5" s="68"/>
-      <c r="J5" s="68"/>
-      <c r="K5" s="68"/>
-      <c r="L5" s="68"/>
+      <c r="I5" s="71"/>
+      <c r="J5" s="71"/>
+      <c r="K5" s="71"/>
+      <c r="L5" s="71"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B6" s="68" t="s">
+      <c r="B6" s="71" t="s">
         <v>82</v>
       </c>
-      <c r="C6" s="68"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="68"/>
-      <c r="F6" s="68"/>
-      <c r="H6" s="68" t="s">
+      <c r="C6" s="71"/>
+      <c r="D6" s="71"/>
+      <c r="E6" s="71"/>
+      <c r="F6" s="71"/>
+      <c r="H6" s="71" t="s">
         <v>78</v>
       </c>
-      <c r="I6" s="68"/>
-      <c r="J6" s="68"/>
-      <c r="K6" s="68"/>
-      <c r="L6" s="68"/>
+      <c r="I6" s="71"/>
+      <c r="J6" s="71"/>
+      <c r="K6" s="71"/>
+      <c r="L6" s="71"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B7" s="68" t="s">
+      <c r="B7" s="71" t="s">
         <v>83</v>
       </c>
-      <c r="C7" s="68"/>
-      <c r="D7" s="68"/>
-      <c r="E7" s="68"/>
-      <c r="F7" s="68"/>
-      <c r="H7" s="68" t="s">
+      <c r="C7" s="71"/>
+      <c r="D7" s="71"/>
+      <c r="E7" s="71"/>
+      <c r="F7" s="71"/>
+      <c r="H7" s="71" t="s">
         <v>77</v>
       </c>
-      <c r="I7" s="68"/>
-      <c r="J7" s="68"/>
-      <c r="K7" s="68"/>
-      <c r="L7" s="68"/>
+      <c r="I7" s="71"/>
+      <c r="J7" s="71"/>
+      <c r="K7" s="71"/>
+      <c r="L7" s="71"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B8" s="68" t="s">
+      <c r="B8" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="C8" s="68"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="68"/>
-      <c r="F8" s="68"/>
-      <c r="H8" s="68" t="s">
+      <c r="C8" s="71"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="71"/>
+      <c r="F8" s="71"/>
+      <c r="H8" s="71" t="s">
         <v>86</v>
       </c>
-      <c r="I8" s="68"/>
-      <c r="J8" s="68"/>
-      <c r="K8" s="68"/>
-      <c r="L8" s="68"/>
+      <c r="I8" s="71"/>
+      <c r="J8" s="71"/>
+      <c r="K8" s="71"/>
+      <c r="L8" s="71"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B9" s="68" t="s">
+      <c r="B9" s="71" t="s">
         <v>84</v>
       </c>
-      <c r="C9" s="68"/>
-      <c r="D9" s="68"/>
-      <c r="E9" s="68"/>
-      <c r="F9" s="68"/>
-      <c r="H9" s="68" t="s">
+      <c r="C9" s="71"/>
+      <c r="D9" s="71"/>
+      <c r="E9" s="71"/>
+      <c r="F9" s="71"/>
+      <c r="H9" s="71" t="s">
         <v>85</v>
       </c>
-      <c r="I9" s="68"/>
-      <c r="J9" s="68"/>
-      <c r="K9" s="68"/>
-      <c r="L9" s="68"/>
+      <c r="I9" s="71"/>
+      <c r="J9" s="71"/>
+      <c r="K9" s="71"/>
+      <c r="L9" s="71"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="H10" s="68" t="s">
-        <v>122</v>
-      </c>
-      <c r="I10" s="68"/>
-      <c r="J10" s="68"/>
-      <c r="K10" s="68"/>
-      <c r="L10" s="68"/>
+      <c r="H10" s="71" t="s">
+        <v>121</v>
+      </c>
+      <c r="I10" s="71"/>
+      <c r="J10" s="71"/>
+      <c r="K10" s="71"/>
+      <c r="L10" s="71"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="72" t="s">
+      <c r="A13" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="B13" s="71" t="s">
-        <v>121</v>
-      </c>
-      <c r="C13" s="71" t="s">
+      <c r="B13" s="42" t="s">
         <v>120</v>
       </c>
-      <c r="D13" s="71" t="s">
+      <c r="C13" s="42" t="s">
         <v>119</v>
       </c>
-      <c r="E13" s="71" t="s">
+      <c r="D13" s="42" t="s">
+        <v>118</v>
+      </c>
+      <c r="E13" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="F13" s="71" t="s">
+      <c r="F13" s="42" t="s">
         <v>107</v>
       </c>
-      <c r="G13" s="68" t="s">
+      <c r="G13" s="71" t="s">
         <v>79</v>
       </c>
-      <c r="H13" s="68"/>
-      <c r="I13" s="68"/>
-      <c r="J13" s="68"/>
-      <c r="K13" s="68" t="s">
+      <c r="H13" s="71"/>
+      <c r="I13" s="71"/>
+      <c r="J13" s="71"/>
+      <c r="K13" s="71" t="s">
         <v>80</v>
       </c>
-      <c r="L13" s="68"/>
-      <c r="M13" s="68"/>
-      <c r="N13" s="68"/>
-      <c r="O13" s="68"/>
-      <c r="P13" s="68"/>
-      <c r="Q13" s="68"/>
-      <c r="R13" s="68" t="s">
-        <v>118</v>
-      </c>
-      <c r="S13" s="68"/>
+      <c r="L13" s="71"/>
+      <c r="M13" s="71"/>
+      <c r="N13" s="71"/>
+      <c r="O13" s="71"/>
+      <c r="P13" s="71"/>
+      <c r="Q13" s="71"/>
+      <c r="R13" s="71" t="s">
+        <v>117</v>
+      </c>
+      <c r="S13" s="71"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1</v>
       </c>
-      <c r="B14" s="66">
-        <v>1</v>
-      </c>
-      <c r="C14" s="66">
-        <v>5</v>
-      </c>
-      <c r="D14" s="66">
-        <v>5</v>
-      </c>
-      <c r="E14" s="66">
+      <c r="B14" s="40">
+        <v>1</v>
+      </c>
+      <c r="C14" s="40">
+        <v>5</v>
+      </c>
+      <c r="D14" s="40">
+        <v>5</v>
+      </c>
+      <c r="E14" s="40">
         <v>8</v>
       </c>
-      <c r="F14" s="66">
-        <v>1</v>
-      </c>
-      <c r="G14" s="68" t="s">
+      <c r="F14" s="40">
+        <v>1</v>
+      </c>
+      <c r="G14" s="71" t="s">
         <v>102</v>
       </c>
-      <c r="H14" s="68"/>
-      <c r="I14" s="68"/>
-      <c r="J14" s="68"/>
-      <c r="K14" s="69" t="s">
+      <c r="H14" s="71"/>
+      <c r="I14" s="71"/>
+      <c r="J14" s="71"/>
+      <c r="K14" s="72" t="s">
         <v>108</v>
       </c>
-      <c r="L14" s="69"/>
-      <c r="M14" s="69"/>
-      <c r="N14" s="69"/>
-      <c r="O14" s="69"/>
-      <c r="P14" s="69"/>
-      <c r="Q14" s="69"/>
-      <c r="R14" s="68" t="s">
+      <c r="L14" s="72"/>
+      <c r="M14" s="72"/>
+      <c r="N14" s="72"/>
+      <c r="O14" s="72"/>
+      <c r="P14" s="72"/>
+      <c r="Q14" s="72"/>
+      <c r="R14" s="71" t="s">
         <v>88</v>
       </c>
-      <c r="S14" s="68"/>
+      <c r="S14" s="71"/>
       <c r="T14" s="7"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2</v>
       </c>
-      <c r="B15" s="66">
+      <c r="B15" s="40">
         <v>10</v>
       </c>
-      <c r="C15" s="66">
+      <c r="C15" s="40">
         <v>3</v>
       </c>
-      <c r="D15" s="66">
+      <c r="D15" s="40">
         <v>3</v>
       </c>
-      <c r="E15" s="66">
+      <c r="E15" s="40">
         <v>8</v>
       </c>
-      <c r="F15" s="66">
-        <v>1</v>
-      </c>
-      <c r="G15" s="68" t="s">
+      <c r="F15" s="40">
+        <v>1</v>
+      </c>
+      <c r="G15" s="71" t="s">
         <v>102</v>
       </c>
-      <c r="H15" s="68"/>
-      <c r="I15" s="68"/>
-      <c r="J15" s="68"/>
-      <c r="K15" s="69" t="s">
-        <v>117</v>
-      </c>
-      <c r="L15" s="69"/>
-      <c r="M15" s="69"/>
-      <c r="N15" s="69"/>
-      <c r="O15" s="69"/>
-      <c r="P15" s="69"/>
-      <c r="Q15" s="69"/>
-      <c r="R15" s="68" t="s">
+      <c r="H15" s="71"/>
+      <c r="I15" s="71"/>
+      <c r="J15" s="71"/>
+      <c r="K15" s="72" t="s">
+        <v>116</v>
+      </c>
+      <c r="L15" s="72"/>
+      <c r="M15" s="72"/>
+      <c r="N15" s="72"/>
+      <c r="O15" s="72"/>
+      <c r="P15" s="72"/>
+      <c r="Q15" s="72"/>
+      <c r="R15" s="71" t="s">
         <v>62</v>
       </c>
-      <c r="S15" s="68"/>
+      <c r="S15" s="71"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>3</v>
       </c>
-      <c r="B16" s="66">
-        <v>1</v>
-      </c>
-      <c r="C16" s="66">
-        <v>5</v>
-      </c>
-      <c r="D16" s="66">
-        <v>5</v>
-      </c>
-      <c r="E16" s="66">
+      <c r="B16" s="40">
+        <v>1</v>
+      </c>
+      <c r="C16" s="40">
+        <v>5</v>
+      </c>
+      <c r="D16" s="40">
+        <v>5</v>
+      </c>
+      <c r="E16" s="40">
         <v>10</v>
       </c>
-      <c r="F16" s="66">
-        <v>1</v>
-      </c>
-      <c r="G16" s="68" t="s">
+      <c r="F16" s="40">
+        <v>1</v>
+      </c>
+      <c r="G16" s="71" t="s">
         <v>102</v>
       </c>
-      <c r="H16" s="68"/>
-      <c r="I16" s="68"/>
-      <c r="J16" s="68"/>
-      <c r="K16" s="69" t="s">
+      <c r="H16" s="71"/>
+      <c r="I16" s="71"/>
+      <c r="J16" s="71"/>
+      <c r="K16" s="72" t="s">
         <v>108</v>
       </c>
-      <c r="L16" s="69"/>
-      <c r="M16" s="69"/>
-      <c r="N16" s="69"/>
-      <c r="O16" s="69"/>
-      <c r="P16" s="69"/>
-      <c r="Q16" s="69"/>
-      <c r="R16" s="68" t="s">
-        <v>116</v>
-      </c>
-      <c r="S16" s="68"/>
+      <c r="L16" s="72"/>
+      <c r="M16" s="72"/>
+      <c r="N16" s="72"/>
+      <c r="O16" s="72"/>
+      <c r="P16" s="72"/>
+      <c r="Q16" s="72"/>
+      <c r="R16" s="71" t="s">
+        <v>115</v>
+      </c>
+      <c r="S16" s="71"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>4</v>
       </c>
-      <c r="B17" s="66">
-        <v>1</v>
-      </c>
-      <c r="C17" s="66">
-        <v>5</v>
-      </c>
-      <c r="D17" s="66">
-        <v>5</v>
-      </c>
-      <c r="E17" s="66">
+      <c r="B17" s="40">
+        <v>1</v>
+      </c>
+      <c r="C17" s="40">
+        <v>5</v>
+      </c>
+      <c r="D17" s="40">
+        <v>5</v>
+      </c>
+      <c r="E17" s="40">
         <v>-10</v>
       </c>
-      <c r="F17" s="66">
-        <v>1</v>
-      </c>
-      <c r="G17" s="68" t="s">
+      <c r="F17" s="40">
+        <v>1</v>
+      </c>
+      <c r="G17" s="71" t="s">
         <v>102</v>
       </c>
-      <c r="H17" s="68"/>
-      <c r="I17" s="68"/>
-      <c r="J17" s="68"/>
-      <c r="K17" s="69" t="s">
+      <c r="H17" s="71"/>
+      <c r="I17" s="71"/>
+      <c r="J17" s="71"/>
+      <c r="K17" s="72" t="s">
         <v>108</v>
       </c>
-      <c r="L17" s="69"/>
-      <c r="M17" s="69"/>
-      <c r="N17" s="69"/>
-      <c r="O17" s="69"/>
-      <c r="P17" s="69"/>
-      <c r="Q17" s="69"/>
-      <c r="R17" s="68" t="s">
-        <v>115</v>
-      </c>
-      <c r="S17" s="68"/>
+      <c r="L17" s="72"/>
+      <c r="M17" s="72"/>
+      <c r="N17" s="72"/>
+      <c r="O17" s="72"/>
+      <c r="P17" s="72"/>
+      <c r="Q17" s="72"/>
+      <c r="R17" s="71" t="s">
+        <v>114</v>
+      </c>
+      <c r="S17" s="71"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>5</v>
       </c>
-      <c r="B18" s="66">
-        <v>1</v>
-      </c>
-      <c r="C18" s="66">
-        <v>5</v>
-      </c>
-      <c r="D18" s="66">
-        <v>5</v>
-      </c>
-      <c r="E18" s="66">
+      <c r="B18" s="40">
+        <v>1</v>
+      </c>
+      <c r="C18" s="40">
+        <v>5</v>
+      </c>
+      <c r="D18" s="40">
+        <v>5</v>
+      </c>
+      <c r="E18" s="40">
         <v>-10</v>
       </c>
-      <c r="F18" s="66">
+      <c r="F18" s="40">
         <v>-6</v>
       </c>
-      <c r="G18" s="68" t="s">
+      <c r="G18" s="71" t="s">
         <v>102</v>
       </c>
-      <c r="H18" s="68"/>
-      <c r="I18" s="68"/>
-      <c r="J18" s="68"/>
-      <c r="K18" s="69" t="s">
+      <c r="H18" s="71"/>
+      <c r="I18" s="71"/>
+      <c r="J18" s="71"/>
+      <c r="K18" s="72" t="s">
         <v>108</v>
       </c>
-      <c r="L18" s="69"/>
-      <c r="M18" s="69"/>
-      <c r="N18" s="69"/>
-      <c r="O18" s="69"/>
-      <c r="P18" s="69"/>
-      <c r="Q18" s="69"/>
-      <c r="R18" s="68" t="s">
+      <c r="L18" s="72"/>
+      <c r="M18" s="72"/>
+      <c r="N18" s="72"/>
+      <c r="O18" s="72"/>
+      <c r="P18" s="72"/>
+      <c r="Q18" s="72"/>
+      <c r="R18" s="71" t="s">
         <v>59</v>
       </c>
-      <c r="S18" s="68"/>
+      <c r="S18" s="71"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>6</v>
       </c>
-      <c r="B19" s="66">
-        <v>1</v>
-      </c>
-      <c r="C19" s="66">
-        <v>5</v>
-      </c>
-      <c r="D19" s="66">
-        <v>5</v>
-      </c>
-      <c r="E19" s="66">
+      <c r="B19" s="40">
+        <v>1</v>
+      </c>
+      <c r="C19" s="40">
+        <v>5</v>
+      </c>
+      <c r="D19" s="40">
+        <v>5</v>
+      </c>
+      <c r="E19" s="40">
         <v>-10</v>
       </c>
-      <c r="F19" s="66">
-        <v>-6</v>
-      </c>
-      <c r="G19" s="68" t="s">
+      <c r="F19" s="40">
+        <v>-9</v>
+      </c>
+      <c r="G19" s="71" t="s">
         <v>102</v>
       </c>
-      <c r="H19" s="68"/>
-      <c r="I19" s="68"/>
-      <c r="J19" s="68"/>
-      <c r="K19" s="69" t="s">
+      <c r="H19" s="71"/>
+      <c r="I19" s="71"/>
+      <c r="J19" s="71"/>
+      <c r="K19" s="72" t="s">
         <v>108</v>
       </c>
-      <c r="L19" s="69"/>
-      <c r="M19" s="69"/>
-      <c r="N19" s="69"/>
-      <c r="O19" s="69"/>
-      <c r="P19" s="69"/>
-      <c r="Q19" s="69"/>
-      <c r="R19" s="68" t="s">
+      <c r="L19" s="72"/>
+      <c r="M19" s="72"/>
+      <c r="N19" s="72"/>
+      <c r="O19" s="72"/>
+      <c r="P19" s="72"/>
+      <c r="Q19" s="72"/>
+      <c r="R19" s="71" t="s">
         <v>59</v>
       </c>
-      <c r="S19" s="68"/>
+      <c r="S19" s="71"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>7</v>
       </c>
-      <c r="B20" s="66">
-        <v>1</v>
-      </c>
-      <c r="C20" s="66">
-        <v>5</v>
-      </c>
-      <c r="D20" s="66">
-        <v>5</v>
-      </c>
-      <c r="E20" s="66">
+      <c r="B20" s="40">
+        <v>1</v>
+      </c>
+      <c r="C20" s="40">
+        <v>5</v>
+      </c>
+      <c r="D20" s="40">
+        <v>5</v>
+      </c>
+      <c r="E20" s="40">
         <v>-10</v>
       </c>
-      <c r="F20" s="66">
-        <v>-9</v>
-      </c>
-      <c r="G20" s="68" t="s">
+      <c r="F20" s="40">
+        <v>-5</v>
+      </c>
+      <c r="G20" s="71" t="s">
         <v>102</v>
       </c>
-      <c r="H20" s="68"/>
-      <c r="I20" s="68"/>
-      <c r="J20" s="68"/>
-      <c r="K20" s="69" t="s">
+      <c r="H20" s="71"/>
+      <c r="I20" s="71"/>
+      <c r="J20" s="71"/>
+      <c r="K20" s="72" t="s">
         <v>108</v>
       </c>
-      <c r="L20" s="69"/>
-      <c r="M20" s="69"/>
-      <c r="N20" s="69"/>
-      <c r="O20" s="69"/>
-      <c r="P20" s="69"/>
-      <c r="Q20" s="69"/>
-      <c r="R20" s="68" t="s">
+      <c r="L20" s="72"/>
+      <c r="M20" s="72"/>
+      <c r="N20" s="72"/>
+      <c r="O20" s="72"/>
+      <c r="P20" s="72"/>
+      <c r="Q20" s="72"/>
+      <c r="R20" s="71" t="s">
         <v>59</v>
       </c>
-      <c r="S20" s="68"/>
+      <c r="S20" s="71"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>8</v>
       </c>
-      <c r="B21" s="66">
-        <v>1</v>
-      </c>
-      <c r="C21" s="66">
-        <v>5</v>
-      </c>
-      <c r="D21" s="66">
-        <v>5</v>
-      </c>
-      <c r="E21" s="66">
+      <c r="B21" s="40">
+        <v>1</v>
+      </c>
+      <c r="C21" s="40">
+        <v>5</v>
+      </c>
+      <c r="D21" s="40">
+        <v>5</v>
+      </c>
+      <c r="E21" s="40">
         <v>-10</v>
       </c>
-      <c r="F21" s="66">
-        <v>-5</v>
-      </c>
-      <c r="G21" s="68" t="s">
+      <c r="F21" s="40">
+        <v>-8.9990000000000006</v>
+      </c>
+      <c r="G21" s="71" t="s">
         <v>102</v>
       </c>
-      <c r="H21" s="68"/>
-      <c r="I21" s="68"/>
-      <c r="J21" s="68"/>
-      <c r="K21" s="69" t="s">
+      <c r="H21" s="71"/>
+      <c r="I21" s="71"/>
+      <c r="J21" s="71"/>
+      <c r="K21" s="72" t="s">
         <v>108</v>
       </c>
-      <c r="L21" s="69"/>
-      <c r="M21" s="69"/>
-      <c r="N21" s="69"/>
-      <c r="O21" s="69"/>
-      <c r="P21" s="69"/>
-      <c r="Q21" s="69"/>
-      <c r="R21" s="68" t="s">
+      <c r="L21" s="72"/>
+      <c r="M21" s="72"/>
+      <c r="N21" s="72"/>
+      <c r="O21" s="72"/>
+      <c r="P21" s="72"/>
+      <c r="Q21" s="72"/>
+      <c r="R21" s="71" t="s">
         <v>59</v>
       </c>
-      <c r="S21" s="68"/>
+      <c r="S21" s="71"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>9</v>
       </c>
-      <c r="B22" s="66">
-        <v>1</v>
-      </c>
-      <c r="C22" s="66">
-        <v>5</v>
-      </c>
-      <c r="D22" s="66">
-        <v>5</v>
-      </c>
-      <c r="E22" s="66">
+      <c r="B22" s="40">
+        <v>1</v>
+      </c>
+      <c r="C22" s="40">
+        <v>5</v>
+      </c>
+      <c r="D22" s="40">
+        <v>5</v>
+      </c>
+      <c r="E22" s="40">
         <v>-10</v>
       </c>
-      <c r="F22" s="66">
-        <v>-5</v>
-      </c>
-      <c r="G22" s="68" t="s">
+      <c r="F22" s="40">
+        <v>-5.0010000000000003</v>
+      </c>
+      <c r="G22" s="71" t="s">
         <v>102</v>
       </c>
-      <c r="H22" s="68"/>
-      <c r="I22" s="68"/>
-      <c r="J22" s="68"/>
-      <c r="K22" s="69" t="s">
+      <c r="H22" s="71"/>
+      <c r="I22" s="71"/>
+      <c r="J22" s="71"/>
+      <c r="K22" s="72" t="s">
         <v>108</v>
       </c>
-      <c r="L22" s="69"/>
-      <c r="M22" s="69"/>
-      <c r="N22" s="69"/>
-      <c r="O22" s="69"/>
-      <c r="P22" s="69"/>
-      <c r="Q22" s="69"/>
-      <c r="R22" s="68" t="s">
+      <c r="L22" s="72"/>
+      <c r="M22" s="72"/>
+      <c r="N22" s="72"/>
+      <c r="O22" s="72"/>
+      <c r="P22" s="72"/>
+      <c r="Q22" s="72"/>
+      <c r="R22" s="71" t="s">
         <v>59</v>
       </c>
-      <c r="S22" s="68"/>
+      <c r="S22" s="71"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>10</v>
       </c>
-      <c r="B23" s="66">
-        <v>1</v>
-      </c>
-      <c r="C23" s="66">
-        <v>5</v>
-      </c>
-      <c r="D23" s="66">
-        <v>5</v>
-      </c>
-      <c r="E23" s="66">
-        <v>-10</v>
-      </c>
-      <c r="F23" s="66">
-        <v>-8.9990000000000006</v>
-      </c>
-      <c r="G23" s="68" t="s">
+      <c r="B23" s="40">
+        <v>1</v>
+      </c>
+      <c r="C23" s="40">
+        <v>5</v>
+      </c>
+      <c r="D23" s="40">
+        <v>0</v>
+      </c>
+      <c r="E23" s="40">
+        <v>8</v>
+      </c>
+      <c r="F23" s="40">
+        <v>1</v>
+      </c>
+      <c r="G23" s="71" t="s">
         <v>102</v>
       </c>
-      <c r="H23" s="68"/>
-      <c r="I23" s="68"/>
-      <c r="J23" s="68"/>
-      <c r="K23" s="69" t="s">
-        <v>108</v>
-      </c>
-      <c r="L23" s="69"/>
-      <c r="M23" s="69"/>
-      <c r="N23" s="69"/>
-      <c r="O23" s="69"/>
-      <c r="P23" s="69"/>
-      <c r="Q23" s="69"/>
-      <c r="R23" s="68" t="s">
-        <v>59</v>
-      </c>
-      <c r="S23" s="68"/>
+      <c r="H23" s="71"/>
+      <c r="I23" s="71"/>
+      <c r="J23" s="71"/>
+      <c r="K23" s="72"/>
+      <c r="L23" s="72"/>
+      <c r="M23" s="72"/>
+      <c r="N23" s="72"/>
+      <c r="O23" s="72"/>
+      <c r="P23" s="72"/>
+      <c r="Q23" s="72"/>
+      <c r="R23" s="71" t="s">
+        <v>113</v>
+      </c>
+      <c r="S23" s="71"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>11</v>
       </c>
-      <c r="B24" s="66">
-        <v>1</v>
-      </c>
-      <c r="C24" s="66">
-        <v>5</v>
-      </c>
-      <c r="D24" s="66">
-        <v>5</v>
-      </c>
-      <c r="E24" s="66">
-        <v>-10</v>
-      </c>
-      <c r="F24" s="66">
-        <v>-5.0010000000000003</v>
-      </c>
-      <c r="G24" s="68" t="s">
+      <c r="B24" s="40">
+        <v>1</v>
+      </c>
+      <c r="C24" s="40">
+        <v>5</v>
+      </c>
+      <c r="D24" s="40">
+        <v>5</v>
+      </c>
+      <c r="E24" s="40">
+        <v>8</v>
+      </c>
+      <c r="F24" s="43" t="s">
+        <v>112</v>
+      </c>
+      <c r="G24" s="71" t="s">
         <v>102</v>
       </c>
-      <c r="H24" s="68"/>
-      <c r="I24" s="68"/>
-      <c r="J24" s="68"/>
-      <c r="K24" s="69" t="s">
-        <v>108</v>
-      </c>
-      <c r="L24" s="69"/>
-      <c r="M24" s="69"/>
-      <c r="N24" s="69"/>
-      <c r="O24" s="69"/>
-      <c r="P24" s="69"/>
-      <c r="Q24" s="69"/>
-      <c r="R24" s="68" t="s">
-        <v>59</v>
-      </c>
-      <c r="S24" s="68"/>
+      <c r="H24" s="71"/>
+      <c r="I24" s="71"/>
+      <c r="J24" s="71"/>
+      <c r="K24" s="40">
+        <v>-1.0965282417577722</v>
+      </c>
+      <c r="L24" s="40">
+        <v>-2.0149550743927005</v>
+      </c>
+      <c r="M24" s="40">
+        <v>-2.6061068543638726</v>
+      </c>
+      <c r="N24" s="40">
+        <v>-2.7739669347588958</v>
+      </c>
+      <c r="O24" s="71">
+        <v>-2.491270977355259</v>
+      </c>
+      <c r="P24" s="71"/>
+      <c r="Q24" s="71"/>
+      <c r="R24" s="71" t="s">
+        <v>88</v>
+      </c>
+      <c r="S24" s="71"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>12</v>
       </c>
-      <c r="B25" s="66">
-        <v>1</v>
-      </c>
-      <c r="C25" s="66">
-        <v>5</v>
-      </c>
-      <c r="D25" s="66">
-        <v>0</v>
-      </c>
-      <c r="E25" s="66">
-        <v>8</v>
-      </c>
-      <c r="F25" s="66">
-        <v>1</v>
-      </c>
-      <c r="G25" s="68" t="s">
+      <c r="B25" s="40">
+        <v>1</v>
+      </c>
+      <c r="C25" s="40">
+        <v>5</v>
+      </c>
+      <c r="D25" s="40">
+        <v>5</v>
+      </c>
+      <c r="E25" s="40">
+        <v>12</v>
+      </c>
+      <c r="F25" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="G25" s="71" t="s">
         <v>102</v>
       </c>
-      <c r="H25" s="68"/>
-      <c r="I25" s="68"/>
-      <c r="J25" s="68"/>
-      <c r="K25" s="69"/>
-      <c r="L25" s="69"/>
-      <c r="M25" s="69"/>
-      <c r="N25" s="69"/>
-      <c r="O25" s="69"/>
-      <c r="P25" s="69"/>
-      <c r="Q25" s="69"/>
-      <c r="R25" s="68" t="s">
-        <v>114</v>
-      </c>
-      <c r="S25" s="68"/>
+      <c r="H25" s="71"/>
+      <c r="I25" s="71"/>
+      <c r="J25" s="71"/>
+      <c r="K25" s="40">
+        <v>0.89715947029458376</v>
+      </c>
+      <c r="L25" s="40">
+        <v>1.6485996059699282</v>
+      </c>
+      <c r="M25" s="40">
+        <v>2.1322692442145454</v>
+      </c>
+      <c r="N25" s="40">
+        <v>2.2696093103107375</v>
+      </c>
+      <c r="O25" s="71">
+        <v>2.0383126184005804</v>
+      </c>
+      <c r="P25" s="71"/>
+      <c r="Q25" s="71"/>
+      <c r="R25" s="71" t="s">
+        <v>88</v>
+      </c>
+      <c r="S25" s="71"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>13</v>
       </c>
-      <c r="B26" s="66">
-        <v>1</v>
-      </c>
-      <c r="C26" s="66">
-        <v>5</v>
-      </c>
-      <c r="D26" s="66">
-        <v>5</v>
-      </c>
-      <c r="E26" s="66">
+      <c r="B26" s="40">
+        <v>1</v>
+      </c>
+      <c r="C26" s="40">
+        <v>5</v>
+      </c>
+      <c r="D26" s="40">
+        <v>5</v>
+      </c>
+      <c r="E26" s="40">
         <v>8</v>
       </c>
-      <c r="F26" s="70" t="s">
-        <v>113</v>
-      </c>
-      <c r="G26" s="68" t="s">
-        <v>102</v>
-      </c>
-      <c r="H26" s="68"/>
-      <c r="I26" s="68"/>
-      <c r="J26" s="68"/>
-      <c r="K26" s="66">
-        <v>-1.0965282417577722</v>
-      </c>
-      <c r="L26" s="66">
-        <v>-2.0149550743927005</v>
-      </c>
-      <c r="M26" s="66">
-        <v>-2.6061068543638726</v>
-      </c>
-      <c r="N26" s="66">
-        <v>-2.7739669347588958</v>
-      </c>
-      <c r="O26" s="68">
-        <v>-2.491270977355259</v>
-      </c>
-      <c r="P26" s="68"/>
-      <c r="Q26" s="68"/>
-      <c r="R26" s="68" t="s">
-        <v>88</v>
-      </c>
-      <c r="S26" s="68"/>
+      <c r="F26" s="40">
+        <v>1</v>
+      </c>
+      <c r="G26" s="71" t="s">
+        <v>122</v>
+      </c>
+      <c r="H26" s="71"/>
+      <c r="I26" s="71"/>
+      <c r="J26" s="71"/>
+      <c r="K26" s="72" t="s">
+        <v>108</v>
+      </c>
+      <c r="L26" s="72"/>
+      <c r="M26" s="72"/>
+      <c r="N26" s="72"/>
+      <c r="O26" s="72"/>
+      <c r="P26" s="72"/>
+      <c r="Q26" s="72"/>
+      <c r="R26" s="71" t="s">
+        <v>89</v>
+      </c>
+      <c r="S26" s="71"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>14</v>
       </c>
-      <c r="B27" s="66">
-        <v>1</v>
-      </c>
-      <c r="C27" s="66">
-        <v>5</v>
-      </c>
-      <c r="D27" s="66">
-        <v>5</v>
-      </c>
-      <c r="E27" s="66">
-        <v>12</v>
-      </c>
-      <c r="F27" s="70" t="s">
-        <v>112</v>
-      </c>
-      <c r="G27" s="68" t="s">
-        <v>102</v>
-      </c>
-      <c r="H27" s="68"/>
-      <c r="I27" s="68"/>
-      <c r="J27" s="68"/>
-      <c r="K27" s="66">
-        <v>0.89715947029458376</v>
-      </c>
-      <c r="L27" s="66">
-        <v>1.6485996059699282</v>
-      </c>
-      <c r="M27" s="66">
-        <v>2.1322692442145454</v>
-      </c>
-      <c r="N27" s="66">
-        <v>2.2696093103107375</v>
-      </c>
-      <c r="O27" s="68">
-        <v>2.0383126184005804</v>
-      </c>
-      <c r="P27" s="68"/>
-      <c r="Q27" s="68"/>
-      <c r="R27" s="68" t="s">
-        <v>88</v>
-      </c>
-      <c r="S27" s="68"/>
+      <c r="B27" s="40">
+        <v>1</v>
+      </c>
+      <c r="C27" s="40">
+        <v>5</v>
+      </c>
+      <c r="D27" s="40">
+        <v>5</v>
+      </c>
+      <c r="E27" s="40">
+        <v>8</v>
+      </c>
+      <c r="F27" s="40">
+        <v>1</v>
+      </c>
+      <c r="G27" s="71" t="s">
+        <v>110</v>
+      </c>
+      <c r="H27" s="71"/>
+      <c r="I27" s="71"/>
+      <c r="J27" s="71"/>
+      <c r="K27" s="72" t="s">
+        <v>108</v>
+      </c>
+      <c r="L27" s="72"/>
+      <c r="M27" s="72"/>
+      <c r="N27" s="72"/>
+      <c r="O27" s="72"/>
+      <c r="P27" s="72"/>
+      <c r="Q27" s="72"/>
+      <c r="R27" s="71" t="s">
+        <v>89</v>
+      </c>
+      <c r="S27" s="71"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>15</v>
       </c>
-      <c r="B28" s="66">
-        <v>1</v>
-      </c>
-      <c r="C28" s="66">
-        <v>5</v>
-      </c>
-      <c r="D28" s="66">
-        <v>5</v>
-      </c>
-      <c r="E28" s="66">
+      <c r="B28" s="40">
+        <v>1</v>
+      </c>
+      <c r="C28" s="40">
+        <v>5</v>
+      </c>
+      <c r="D28" s="40">
+        <v>5</v>
+      </c>
+      <c r="E28" s="40">
         <v>8</v>
       </c>
-      <c r="F28" s="66">
-        <v>1</v>
-      </c>
-      <c r="G28" s="68" t="s">
-        <v>111</v>
-      </c>
-      <c r="H28" s="68"/>
-      <c r="I28" s="68"/>
-      <c r="J28" s="68"/>
-      <c r="K28" s="69" t="s">
+      <c r="F28" s="40">
+        <v>1</v>
+      </c>
+      <c r="G28" s="71" t="s">
+        <v>109</v>
+      </c>
+      <c r="H28" s="71"/>
+      <c r="I28" s="71"/>
+      <c r="J28" s="71"/>
+      <c r="K28" s="72" t="s">
         <v>108</v>
       </c>
-      <c r="L28" s="69"/>
-      <c r="M28" s="69"/>
-      <c r="N28" s="69"/>
-      <c r="O28" s="69"/>
-      <c r="P28" s="69"/>
-      <c r="Q28" s="69"/>
-      <c r="R28" s="68" t="s">
+      <c r="L28" s="72"/>
+      <c r="M28" s="72"/>
+      <c r="N28" s="72"/>
+      <c r="O28" s="72"/>
+      <c r="P28" s="72"/>
+      <c r="Q28" s="72"/>
+      <c r="R28" s="71" t="s">
         <v>89</v>
       </c>
-      <c r="S28" s="68"/>
+      <c r="S28" s="71"/>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>16</v>
       </c>
-      <c r="B29" s="66">
-        <v>1</v>
-      </c>
-      <c r="C29" s="66">
-        <v>5</v>
-      </c>
-      <c r="D29" s="66">
-        <v>5</v>
-      </c>
-      <c r="E29" s="66">
+      <c r="B29" s="41" t="s">
+        <v>106</v>
+      </c>
+      <c r="C29" s="41">
+        <v>10</v>
+      </c>
+      <c r="D29" s="41">
+        <v>1</v>
+      </c>
+      <c r="E29" s="41">
         <v>8</v>
       </c>
-      <c r="F29" s="66">
-        <v>1</v>
-      </c>
-      <c r="G29" s="68" t="s">
-        <v>110</v>
-      </c>
-      <c r="H29" s="68"/>
-      <c r="I29" s="68"/>
-      <c r="J29" s="68"/>
-      <c r="K29" s="69" t="s">
-        <v>108</v>
-      </c>
-      <c r="L29" s="69"/>
-      <c r="M29" s="69"/>
-      <c r="N29" s="69"/>
-      <c r="O29" s="69"/>
-      <c r="P29" s="69"/>
-      <c r="Q29" s="69"/>
-      <c r="R29" s="68" t="s">
-        <v>89</v>
-      </c>
-      <c r="S29" s="68"/>
+      <c r="F29" s="41">
+        <v>1</v>
+      </c>
+      <c r="G29" s="40"/>
+      <c r="H29" s="40"/>
+      <c r="I29" s="40"/>
+      <c r="J29" s="40"/>
+      <c r="K29" s="40"/>
+      <c r="L29" s="40"/>
+      <c r="M29" s="40"/>
+      <c r="N29" s="40"/>
+      <c r="O29" s="40"/>
+      <c r="P29" s="40"/>
+      <c r="Q29" s="40"/>
+      <c r="R29" s="40"/>
+      <c r="S29" s="40"/>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>17</v>
       </c>
-      <c r="B30" s="66">
-        <v>1</v>
-      </c>
-      <c r="C30" s="66">
-        <v>5</v>
-      </c>
-      <c r="D30" s="66">
-        <v>5</v>
-      </c>
-      <c r="E30" s="66">
+      <c r="B30" s="41">
+        <v>1</v>
+      </c>
+      <c r="C30" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="D30" s="41">
+        <v>1</v>
+      </c>
+      <c r="E30" s="41">
         <v>8</v>
       </c>
-      <c r="F30" s="66">
-        <v>1</v>
-      </c>
-      <c r="G30" s="68" t="s">
-        <v>109</v>
-      </c>
-      <c r="H30" s="68"/>
-      <c r="I30" s="68"/>
-      <c r="J30" s="68"/>
-      <c r="K30" s="69" t="s">
-        <v>108</v>
-      </c>
-      <c r="L30" s="69"/>
-      <c r="M30" s="69"/>
-      <c r="N30" s="69"/>
-      <c r="O30" s="69"/>
-      <c r="P30" s="69"/>
-      <c r="Q30" s="69"/>
-      <c r="R30" s="68" t="s">
-        <v>89</v>
-      </c>
-      <c r="S30" s="68"/>
+      <c r="F30" s="41">
+        <v>1</v>
+      </c>
+      <c r="G30" s="40"/>
+      <c r="H30" s="40"/>
+      <c r="I30" s="40"/>
+      <c r="J30" s="40"/>
+      <c r="K30" s="40"/>
+      <c r="L30" s="40"/>
+      <c r="M30" s="40"/>
+      <c r="N30" s="40"/>
+      <c r="O30" s="40"/>
+      <c r="P30" s="40"/>
+      <c r="Q30" s="40"/>
+      <c r="R30" s="40"/>
+      <c r="S30" s="40"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>18</v>
       </c>
-      <c r="B31" s="67" t="s">
-        <v>106</v>
-      </c>
-      <c r="C31" s="67">
-        <v>10</v>
-      </c>
-      <c r="D31" s="67">
-        <v>1</v>
-      </c>
-      <c r="E31" s="67">
-        <v>8</v>
-      </c>
-      <c r="F31" s="67">
-        <v>1</v>
-      </c>
-      <c r="G31" s="66"/>
-      <c r="H31" s="66"/>
-      <c r="I31" s="66"/>
-      <c r="J31" s="66"/>
-      <c r="K31" s="66"/>
-      <c r="L31" s="66"/>
-      <c r="M31" s="66"/>
-      <c r="N31" s="66"/>
-      <c r="O31" s="66"/>
-      <c r="P31" s="66"/>
-      <c r="Q31" s="66"/>
-      <c r="R31" s="73" t="s">
-        <v>123</v>
-      </c>
-      <c r="S31" s="74"/>
+      <c r="B31" s="41"/>
+      <c r="C31" s="41"/>
+      <c r="D31" s="41" t="s">
+        <v>107</v>
+      </c>
+      <c r="E31" s="41"/>
+      <c r="F31" s="41"/>
+      <c r="G31" s="40"/>
+      <c r="H31" s="40"/>
+      <c r="I31" s="40"/>
+      <c r="J31" s="40"/>
+      <c r="K31" s="40"/>
+      <c r="L31" s="40"/>
+      <c r="M31" s="40"/>
+      <c r="N31" s="40"/>
+      <c r="O31" s="40"/>
+      <c r="P31" s="40"/>
+      <c r="Q31" s="40"/>
+      <c r="R31" s="40"/>
+      <c r="S31" s="40"/>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>19</v>
       </c>
-      <c r="B32" s="67">
-        <v>1</v>
-      </c>
-      <c r="C32" s="67" t="s">
-        <v>0</v>
-      </c>
-      <c r="D32" s="67">
-        <v>1</v>
-      </c>
-      <c r="E32" s="67">
-        <v>8</v>
-      </c>
-      <c r="F32" s="67">
-        <v>1</v>
-      </c>
-      <c r="G32" s="66"/>
-      <c r="H32" s="66"/>
-      <c r="I32" s="66"/>
-      <c r="J32" s="66"/>
-      <c r="K32" s="66"/>
-      <c r="L32" s="66"/>
-      <c r="M32" s="66"/>
-      <c r="N32" s="66"/>
-      <c r="O32" s="66"/>
-      <c r="P32" s="66"/>
-      <c r="Q32" s="66"/>
-      <c r="R32" s="73" t="s">
-        <v>124</v>
-      </c>
-      <c r="S32" s="74"/>
+      <c r="B32" s="41"/>
+      <c r="C32" s="41"/>
+      <c r="D32" s="41">
+        <v>5</v>
+      </c>
+      <c r="E32" s="41" t="s">
+        <v>106</v>
+      </c>
+      <c r="F32" s="41"/>
+      <c r="G32" s="40"/>
+      <c r="H32" s="40"/>
+      <c r="I32" s="40"/>
+      <c r="J32" s="40"/>
+      <c r="K32" s="40"/>
+      <c r="L32" s="40"/>
+      <c r="M32" s="40"/>
+      <c r="N32" s="40"/>
+      <c r="O32" s="40"/>
+      <c r="P32" s="40"/>
+      <c r="Q32" s="40"/>
+      <c r="R32" s="40"/>
+      <c r="S32" s="40"/>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>20</v>
       </c>
-      <c r="B33" s="67"/>
-      <c r="C33" s="67"/>
-      <c r="D33" s="67" t="s">
-        <v>107</v>
-      </c>
-      <c r="E33" s="67"/>
-      <c r="F33" s="67"/>
-      <c r="G33" s="66"/>
-      <c r="H33" s="66"/>
-      <c r="I33" s="66"/>
-      <c r="J33" s="66"/>
-      <c r="K33" s="66"/>
-      <c r="L33" s="66"/>
-      <c r="M33" s="66"/>
-      <c r="N33" s="66"/>
-      <c r="O33" s="66"/>
-      <c r="P33" s="66"/>
-      <c r="Q33" s="66"/>
-      <c r="R33" s="73" t="s">
-        <v>125</v>
-      </c>
-      <c r="S33" s="74"/>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>21</v>
-      </c>
-      <c r="B34" s="67"/>
-      <c r="C34" s="67"/>
-      <c r="D34" s="67">
-        <v>5</v>
-      </c>
-      <c r="E34" s="67" t="s">
+      <c r="B33" s="41"/>
+      <c r="C33" s="41"/>
+      <c r="D33" s="41">
+        <v>5</v>
+      </c>
+      <c r="E33" s="41">
+        <v>8</v>
+      </c>
+      <c r="F33" s="41" t="s">
         <v>106</v>
       </c>
-      <c r="F34" s="67"/>
-      <c r="G34" s="66"/>
-      <c r="H34" s="66"/>
-      <c r="I34" s="66"/>
-      <c r="J34" s="66"/>
-      <c r="K34" s="66"/>
-      <c r="L34" s="66"/>
-      <c r="M34" s="66"/>
-      <c r="N34" s="66"/>
-      <c r="O34" s="66"/>
-      <c r="P34" s="66"/>
-      <c r="Q34" s="66"/>
-      <c r="R34" s="73" t="s">
-        <v>126</v>
-      </c>
-      <c r="S34" s="74"/>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>22</v>
-      </c>
-      <c r="B35" s="67"/>
-      <c r="C35" s="67"/>
-      <c r="D35" s="67">
-        <v>5</v>
-      </c>
-      <c r="E35" s="67">
-        <v>8</v>
-      </c>
-      <c r="F35" s="67" t="s">
-        <v>106</v>
-      </c>
-      <c r="G35" s="66"/>
-      <c r="H35" s="66"/>
-      <c r="I35" s="66"/>
-      <c r="J35" s="66"/>
-      <c r="K35" s="66"/>
-      <c r="L35" s="66"/>
-      <c r="M35" s="66"/>
-      <c r="N35" s="66"/>
-      <c r="O35" s="66"/>
-      <c r="P35" s="66"/>
-      <c r="Q35" s="66"/>
-      <c r="R35" s="73" t="s">
-        <v>127</v>
-      </c>
-      <c r="S35" s="74"/>
+      <c r="G33" s="40"/>
+      <c r="H33" s="40"/>
+      <c r="I33" s="40"/>
+      <c r="J33" s="40"/>
+      <c r="K33" s="40"/>
+      <c r="L33" s="40"/>
+      <c r="M33" s="40"/>
+      <c r="N33" s="40"/>
+      <c r="O33" s="40"/>
+      <c r="P33" s="40"/>
+      <c r="Q33" s="40"/>
+      <c r="R33" s="40"/>
+      <c r="S33" s="40"/>
     </row>
   </sheetData>
-  <mergeCells count="78">
-    <mergeCell ref="R32:S32"/>
-    <mergeCell ref="R33:S33"/>
-    <mergeCell ref="R34:S34"/>
-    <mergeCell ref="R35:S35"/>
-    <mergeCell ref="G30:J30"/>
-    <mergeCell ref="K30:Q30"/>
-    <mergeCell ref="R30:S30"/>
-    <mergeCell ref="G28:J28"/>
-    <mergeCell ref="K28:Q28"/>
-    <mergeCell ref="R31:S31"/>
-    <mergeCell ref="G26:J26"/>
-    <mergeCell ref="R26:S26"/>
-    <mergeCell ref="R28:S28"/>
-    <mergeCell ref="G29:J29"/>
-    <mergeCell ref="K29:Q29"/>
-    <mergeCell ref="R29:S29"/>
-    <mergeCell ref="G24:J24"/>
-    <mergeCell ref="K24:Q24"/>
-    <mergeCell ref="R24:S24"/>
-    <mergeCell ref="O26:Q26"/>
-    <mergeCell ref="G27:J27"/>
-    <mergeCell ref="O27:Q27"/>
-    <mergeCell ref="R27:S27"/>
-    <mergeCell ref="G25:J25"/>
-    <mergeCell ref="K25:Q25"/>
-    <mergeCell ref="R25:S25"/>
+  <mergeCells count="67">
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="H2:L2"/>
+    <mergeCell ref="H3:L3"/>
+    <mergeCell ref="H4:L4"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="K22:Q22"/>
+    <mergeCell ref="R22:S22"/>
+    <mergeCell ref="G19:J19"/>
+    <mergeCell ref="K19:Q19"/>
+    <mergeCell ref="G16:J16"/>
+    <mergeCell ref="K16:Q16"/>
+    <mergeCell ref="R16:S16"/>
+    <mergeCell ref="K14:Q14"/>
+    <mergeCell ref="R13:S13"/>
+    <mergeCell ref="R19:S19"/>
+    <mergeCell ref="G20:J20"/>
+    <mergeCell ref="K20:Q20"/>
+    <mergeCell ref="R20:S20"/>
+    <mergeCell ref="G21:J21"/>
+    <mergeCell ref="K21:Q21"/>
+    <mergeCell ref="R21:S21"/>
     <mergeCell ref="K13:Q13"/>
     <mergeCell ref="K15:Q15"/>
     <mergeCell ref="R15:S15"/>
@@ -4049,42 +3924,21 @@
     <mergeCell ref="R18:S18"/>
     <mergeCell ref="R14:S14"/>
     <mergeCell ref="G15:J15"/>
-    <mergeCell ref="R19:S19"/>
-    <mergeCell ref="G20:J20"/>
-    <mergeCell ref="K20:Q20"/>
-    <mergeCell ref="R20:S20"/>
-    <mergeCell ref="G21:J21"/>
-    <mergeCell ref="K21:Q21"/>
-    <mergeCell ref="R21:S21"/>
-    <mergeCell ref="G16:J16"/>
-    <mergeCell ref="K16:Q16"/>
-    <mergeCell ref="R16:S16"/>
-    <mergeCell ref="K14:Q14"/>
-    <mergeCell ref="R13:S13"/>
-    <mergeCell ref="G22:J22"/>
-    <mergeCell ref="K22:Q22"/>
-    <mergeCell ref="R22:S22"/>
-    <mergeCell ref="G19:J19"/>
-    <mergeCell ref="K19:Q19"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="H1:L1"/>
-    <mergeCell ref="H2:L2"/>
-    <mergeCell ref="H3:L3"/>
-    <mergeCell ref="H4:L4"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="G24:J24"/>
+    <mergeCell ref="R24:S24"/>
+    <mergeCell ref="G27:J27"/>
+    <mergeCell ref="R27:S27"/>
+    <mergeCell ref="G25:J25"/>
+    <mergeCell ref="R25:S25"/>
+    <mergeCell ref="O24:Q24"/>
+    <mergeCell ref="O25:Q25"/>
+    <mergeCell ref="K26:Q26"/>
+    <mergeCell ref="K27:Q27"/>
+    <mergeCell ref="G28:J28"/>
+    <mergeCell ref="K28:Q28"/>
+    <mergeCell ref="G26:J26"/>
+    <mergeCell ref="R26:S26"/>
+    <mergeCell ref="R28:S28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
